--- a/pcb/Aquarius MX - BOM.xlsx
+++ b/pcb/Aquarius MX - BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\Peripherals\Expanders\Aquarius MX\Aquarius-MX\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F324F57-FD00-41D5-9993-4018EBF228A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1FB9A4-FAA4-44F9-88FB-2EB9A6757D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="US Dollars" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>Order Qty.</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Aquarius MX PCB - v1.3.0 Rev C (Blue PCB)</t>
-  </si>
-  <si>
     <t>As of 16 AUG 2022, 10 @ PCBs are US$24.66, DHL Shipping is $36.72 via JLCPB</t>
   </si>
   <si>
@@ -249,6 +246,12 @@
   </si>
   <si>
     <t>https://www.ebay.com/sch/i.html?_from=R40&amp;_trksid=p2380057.m570.l1313&amp;_nkw=ch376s&amp;_sacat=0</t>
+  </si>
+  <si>
+    <t>Aquarius MX PCB - v1.4.0 Rev C (Blue PCB)</t>
+  </si>
+  <si>
+    <t>Use hot glue or 2-part putty in screw holes if your screws are too small</t>
   </si>
 </sst>
 </file>
@@ -652,7 +655,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -662,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -701,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="C2" s="6">
         <v>6.16</v>
@@ -711,7 +714,7 @@
         <v>6.16</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="7"/>
     </row>
@@ -720,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="6">
         <v>7</v>
@@ -730,10 +733,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -741,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="6">
         <v>0.1</v>
@@ -750,9 +753,11 @@
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="F4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -760,7 +765,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="6">
         <v>0.1</v>
@@ -770,10 +775,10 @@
         <v>0.4</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -781,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="6">
         <v>0.37</v>
@@ -791,10 +796,10 @@
         <v>0.37</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -802,7 +807,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="6">
         <v>1.5</v>
@@ -812,10 +817,10 @@
         <v>1.5</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -823,7 +828,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -833,10 +838,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -844,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -854,10 +859,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -865,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
@@ -875,10 +880,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -886,7 +891,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="6">
         <v>11.33</v>
@@ -896,10 +901,10 @@
         <v>22.66</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -907,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="6">
         <v>9</v>
@@ -917,10 +922,10 @@
         <v>9</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -928,7 +933,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="6">
         <v>0.7</v>
@@ -938,10 +943,10 @@
         <v>5.6</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -949,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="6">
         <v>0.25</v>
@@ -959,7 +964,7 @@
         <v>0.25</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="7"/>
     </row>
@@ -968,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="6">
         <v>0.1</v>
@@ -985,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="6">
         <v>0.1</v>
@@ -1002,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="6">
         <v>0.1</v>
@@ -1019,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="6">
         <v>0.5</v>
@@ -1036,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="6">
         <v>1</v>
@@ -1053,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="6">
         <v>1.25</v>
@@ -1063,7 +1068,7 @@
         <v>2.5</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" s="7"/>
     </row>
@@ -1072,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="6">
         <v>1.25</v>
@@ -1082,7 +1087,7 @@
         <v>1.25</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="7"/>
     </row>
@@ -1091,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="6">
         <v>5</v>
@@ -1101,7 +1106,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="7"/>
     </row>
@@ -1110,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="6">
         <v>7</v>
@@ -1120,7 +1125,7 @@
         <v>7</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7"/>
     </row>
@@ -1129,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="6">
         <v>0.5</v>
@@ -1139,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="7"/>
     </row>
@@ -1148,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="6">
         <v>13</v>
@@ -1158,7 +1163,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F25" s="7"/>
     </row>
@@ -1167,7 +1172,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="6">
         <v>1</v>
@@ -1177,7 +1182,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F26" s="7"/>
     </row>
@@ -1186,7 +1191,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="6">
         <v>0.05</v>
@@ -1196,7 +1201,7 @@
         <v>0.1</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7"/>
     </row>
@@ -1205,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="6">
         <v>0.25</v>
@@ -1215,10 +1220,10 @@
         <v>0.5</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1226,7 +1231,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="6">
         <v>0.1</v>
@@ -1236,10 +1241,10 @@
         <v>0.2</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1247,7 +1252,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="6">
         <v>0.05</v>
@@ -1257,10 +1262,10 @@
         <v>0.2</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1268,7 +1273,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="6">
         <v>0.2</v>
@@ -1278,10 +1283,10 @@
         <v>0.4</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1289,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="6">
         <v>6.3</v>
@@ -1299,10 +1304,10 @@
         <v>6.3</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1316,7 +1321,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6">
@@ -1324,7 +1329,7 @@
         <v>99.59</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">

--- a/pcb/Aquarius MX - BOM.xlsx
+++ b/pcb/Aquarius MX - BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\Peripherals\Expanders\Aquarius MX\Aquarius-MX\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1FB9A4-FAA4-44F9-88FB-2EB9A6757D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FED5F1-8022-4B64-8AAB-B1E12D3AB1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="US Dollars" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>Order Qty.</t>
   </si>
@@ -252,6 +252,12 @@
   </si>
   <si>
     <t>Use hot glue or 2-part putty in screw holes if your screws are too small</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/analog-devices-inc-maxim-integrated/DS1233D-10-T-R/956854</t>
+  </si>
+  <si>
+    <t>DS1233D-10-T-R</t>
   </si>
 </sst>
 </file>
@@ -261,7 +267,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -291,6 +297,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -309,10 +321,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -349,8 +362,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -665,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1050,8 +1067,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -5219,8 +5240,9 @@
     <hyperlink ref="F29" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="F30" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="F32" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F19" r:id="rId15" xr:uid="{D21E5AF2-C8DF-4C87-BEBB-38E5AC86CEA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId15"/>
+  <pageSetup orientation="landscape" r:id="rId16"/>
 </worksheet>
 </file>
--- a/pcb/Aquarius MX - BOM.xlsx
+++ b/pcb/Aquarius MX - BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\Peripherals\Expanders\Aquarius MX\Aquarius-MX\pcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FED5F1-8022-4B64-8AAB-B1E12D3AB1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE89533-3C3D-4B73-8BF5-87069318B539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>#4 1/2" Pan Head Phillips Screw for Plastic, 20tpi</t>
   </si>
   <si>
-    <t>https://www.mcmaster.com/catalog/128/3286</t>
-  </si>
-  <si>
     <t>Rubber feet</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>DS1233D-10-T-R</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/catalog/129/3370/90380A110</t>
   </si>
 </sst>
 </file>
@@ -267,7 +267,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -283,12 +283,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -323,9 +317,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -350,9 +344,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -362,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -682,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -721,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="6">
         <v>6.16</v>
@@ -771,10 +762,10 @@
         <v>0.4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>11</v>
+        <v>71</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -782,7 +773,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6">
         <v>0.1</v>
@@ -792,10 +783,10 @@
         <v>0.4</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -803,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6">
         <v>0.37</v>
@@ -813,10 +804,10 @@
         <v>0.37</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -824,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="6">
         <v>1.5</v>
@@ -834,10 +825,10 @@
         <v>1.5</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -845,7 +836,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
@@ -855,10 +846,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -866,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -876,10 +867,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -887,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
@@ -897,10 +888,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -908,7 +899,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="6">
         <v>11.33</v>
@@ -918,10 +909,10 @@
         <v>22.66</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -929,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="6">
         <v>9</v>
@@ -939,10 +930,10 @@
         <v>9</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -950,7 +941,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="6">
         <v>0.7</v>
@@ -960,10 +951,10 @@
         <v>5.6</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -971,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="6">
         <v>0.25</v>
@@ -981,7 +972,7 @@
         <v>0.25</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="7"/>
     </row>
@@ -990,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="6">
         <v>0.1</v>
@@ -1007,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="6">
         <v>0.1</v>
@@ -1024,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="6">
         <v>0.1</v>
@@ -1041,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="6">
         <v>0.5</v>
@@ -1058,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="6">
         <v>1</v>
@@ -1068,10 +1059,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="14" t="s">
         <v>73</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1079,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="6">
         <v>1.25</v>
@@ -1089,7 +1080,7 @@
         <v>2.5</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" s="7"/>
     </row>
@@ -1098,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="6">
         <v>1.25</v>
@@ -1108,7 +1099,7 @@
         <v>1.25</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7"/>
     </row>
@@ -1117,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="6">
         <v>5</v>
@@ -1127,7 +1118,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="7"/>
     </row>
@@ -1136,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="6">
         <v>7</v>
@@ -1146,7 +1137,7 @@
         <v>7</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="7"/>
     </row>
@@ -1155,7 +1146,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="6">
         <v>0.5</v>
@@ -1165,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="7"/>
     </row>
@@ -1174,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="6">
         <v>13</v>
@@ -1184,7 +1175,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" s="7"/>
     </row>
@@ -1193,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="6">
         <v>1</v>
@@ -1203,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26" s="7"/>
     </row>
@@ -1212,7 +1203,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="6">
         <v>0.05</v>
@@ -1222,7 +1213,7 @@
         <v>0.1</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="7"/>
     </row>
@@ -1231,7 +1222,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="6">
         <v>0.25</v>
@@ -1241,10 +1232,10 @@
         <v>0.5</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1252,7 +1243,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="6">
         <v>0.1</v>
@@ -1262,10 +1253,10 @@
         <v>0.2</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1273,7 +1264,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C30" s="6">
         <v>0.05</v>
@@ -1283,10 +1274,10 @@
         <v>0.2</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1294,7 +1285,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="6">
         <v>0.2</v>
@@ -1304,10 +1295,10 @@
         <v>0.4</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1315,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="6">
         <v>6.3</v>
@@ -1325,10 +1316,10 @@
         <v>6.3</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1337,12 +1328,12 @@
       <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <f>SUM(A2:A28)</f>
         <v>47</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>66</v>
+      <c r="B34" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6">
@@ -1350,3879 +1341,3879 @@
         <v>99.59</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
-      <c r="E35" s="13"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
-      <c r="E36" s="13"/>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
-      <c r="E37" s="13"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="E38" s="13"/>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="E39" s="13"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="E40" s="13"/>
+      <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="E41" s="13"/>
+      <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="E42" s="13"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="E43" s="13"/>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="E44" s="13"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="E45" s="13"/>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="E46" s="13"/>
+      <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="E47" s="13"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="E48" s="13"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="E49" s="13"/>
+      <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="E50" s="13"/>
+      <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="E51" s="13"/>
+      <c r="E51" s="12"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-      <c r="E52" s="13"/>
+      <c r="E52" s="12"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="E53" s="13"/>
+      <c r="E53" s="12"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
-      <c r="E54" s="13"/>
+      <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="E55" s="13"/>
+      <c r="E55" s="12"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-      <c r="E56" s="13"/>
+      <c r="E56" s="12"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="E57" s="13"/>
+      <c r="E57" s="12"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
-      <c r="E58" s="13"/>
+      <c r="E58" s="12"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="E59" s="13"/>
+      <c r="E59" s="12"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="E60" s="13"/>
+      <c r="E60" s="12"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
-      <c r="E61" s="13"/>
+      <c r="E61" s="12"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
-      <c r="E62" s="13"/>
+      <c r="E62" s="12"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
-      <c r="E63" s="13"/>
+      <c r="E63" s="12"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
-      <c r="E64" s="13"/>
+      <c r="E64" s="12"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
-      <c r="E65" s="13"/>
+      <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
-      <c r="E66" s="13"/>
+      <c r="E66" s="12"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
-      <c r="E67" s="13"/>
+      <c r="E67" s="12"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
-      <c r="E68" s="13"/>
+      <c r="E68" s="12"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
-      <c r="E69" s="13"/>
+      <c r="E69" s="12"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
-      <c r="E70" s="13"/>
+      <c r="E70" s="12"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
-      <c r="E71" s="13"/>
+      <c r="E71" s="12"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
-      <c r="E72" s="13"/>
+      <c r="E72" s="12"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
-      <c r="E73" s="13"/>
+      <c r="E73" s="12"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
-      <c r="E74" s="13"/>
+      <c r="E74" s="12"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
-      <c r="E75" s="13"/>
+      <c r="E75" s="12"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
-      <c r="E76" s="13"/>
+      <c r="E76" s="12"/>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
-      <c r="E77" s="13"/>
+      <c r="E77" s="12"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
-      <c r="E78" s="13"/>
+      <c r="E78" s="12"/>
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
-      <c r="E79" s="13"/>
+      <c r="E79" s="12"/>
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
-      <c r="E80" s="13"/>
+      <c r="E80" s="12"/>
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
-      <c r="E81" s="13"/>
+      <c r="E81" s="12"/>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
-      <c r="E82" s="13"/>
+      <c r="E82" s="12"/>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-      <c r="E83" s="13"/>
+      <c r="E83" s="12"/>
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
-      <c r="E84" s="13"/>
+      <c r="E84" s="12"/>
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
-      <c r="E85" s="13"/>
+      <c r="E85" s="12"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
-      <c r="E86" s="13"/>
+      <c r="E86" s="12"/>
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
-      <c r="E87" s="13"/>
+      <c r="E87" s="12"/>
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
-      <c r="E88" s="13"/>
+      <c r="E88" s="12"/>
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
-      <c r="E89" s="13"/>
+      <c r="E89" s="12"/>
     </row>
     <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
-      <c r="E90" s="13"/>
+      <c r="E90" s="12"/>
     </row>
     <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
-      <c r="E91" s="13"/>
+      <c r="E91" s="12"/>
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="E92" s="13"/>
+      <c r="E92" s="12"/>
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
-      <c r="E93" s="13"/>
+      <c r="E93" s="12"/>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
-      <c r="E94" s="13"/>
+      <c r="E94" s="12"/>
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
-      <c r="E95" s="13"/>
+      <c r="E95" s="12"/>
     </row>
     <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
-      <c r="E96" s="13"/>
+      <c r="E96" s="12"/>
     </row>
     <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="E97" s="13"/>
+      <c r="E97" s="12"/>
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
-      <c r="E98" s="13"/>
+      <c r="E98" s="12"/>
     </row>
     <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
-      <c r="E99" s="13"/>
+      <c r="E99" s="12"/>
     </row>
     <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
-      <c r="E100" s="13"/>
+      <c r="E100" s="12"/>
     </row>
     <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
-      <c r="E101" s="13"/>
+      <c r="E101" s="12"/>
     </row>
     <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
-      <c r="E102" s="13"/>
+      <c r="E102" s="12"/>
     </row>
     <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
-      <c r="E103" s="13"/>
+      <c r="E103" s="12"/>
     </row>
     <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
-      <c r="E104" s="13"/>
+      <c r="E104" s="12"/>
     </row>
     <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
-      <c r="E105" s="13"/>
+      <c r="E105" s="12"/>
     </row>
     <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
-      <c r="E106" s="13"/>
+      <c r="E106" s="12"/>
     </row>
     <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
-      <c r="E107" s="13"/>
+      <c r="E107" s="12"/>
     </row>
     <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
-      <c r="E108" s="13"/>
+      <c r="E108" s="12"/>
     </row>
     <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
-      <c r="E109" s="13"/>
+      <c r="E109" s="12"/>
     </row>
     <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
-      <c r="E110" s="13"/>
+      <c r="E110" s="12"/>
     </row>
     <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
-      <c r="E111" s="13"/>
+      <c r="E111" s="12"/>
     </row>
     <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
-      <c r="E112" s="13"/>
+      <c r="E112" s="12"/>
     </row>
     <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
-      <c r="E113" s="13"/>
+      <c r="E113" s="12"/>
     </row>
     <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
-      <c r="E114" s="13"/>
+      <c r="E114" s="12"/>
     </row>
     <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
-      <c r="E115" s="13"/>
+      <c r="E115" s="12"/>
     </row>
     <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
-      <c r="E116" s="13"/>
+      <c r="E116" s="12"/>
     </row>
     <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
-      <c r="E117" s="13"/>
+      <c r="E117" s="12"/>
     </row>
     <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
-      <c r="E118" s="13"/>
+      <c r="E118" s="12"/>
     </row>
     <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
-      <c r="E119" s="13"/>
+      <c r="E119" s="12"/>
     </row>
     <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
-      <c r="E120" s="13"/>
+      <c r="E120" s="12"/>
     </row>
     <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
-      <c r="E121" s="13"/>
+      <c r="E121" s="12"/>
     </row>
     <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
-      <c r="E122" s="13"/>
+      <c r="E122" s="12"/>
     </row>
     <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
-      <c r="E123" s="13"/>
+      <c r="E123" s="12"/>
     </row>
     <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
-      <c r="E124" s="13"/>
+      <c r="E124" s="12"/>
     </row>
     <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
-      <c r="E125" s="13"/>
+      <c r="E125" s="12"/>
     </row>
     <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
-      <c r="E126" s="13"/>
+      <c r="E126" s="12"/>
     </row>
     <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
-      <c r="E127" s="13"/>
+      <c r="E127" s="12"/>
     </row>
     <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
-      <c r="E128" s="13"/>
+      <c r="E128" s="12"/>
     </row>
     <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
-      <c r="E129" s="13"/>
+      <c r="E129" s="12"/>
     </row>
     <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
-      <c r="E130" s="13"/>
+      <c r="E130" s="12"/>
     </row>
     <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
-      <c r="E131" s="13"/>
+      <c r="E131" s="12"/>
     </row>
     <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
-      <c r="E132" s="13"/>
+      <c r="E132" s="12"/>
     </row>
     <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
-      <c r="E133" s="13"/>
+      <c r="E133" s="12"/>
     </row>
     <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
-      <c r="E134" s="13"/>
+      <c r="E134" s="12"/>
     </row>
     <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
-      <c r="E135" s="13"/>
+      <c r="E135" s="12"/>
     </row>
     <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
-      <c r="E136" s="13"/>
+      <c r="E136" s="12"/>
     </row>
     <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
-      <c r="E137" s="13"/>
+      <c r="E137" s="12"/>
     </row>
     <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
-      <c r="E138" s="13"/>
+      <c r="E138" s="12"/>
     </row>
     <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
-      <c r="E139" s="13"/>
+      <c r="E139" s="12"/>
     </row>
     <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
-      <c r="E140" s="13"/>
+      <c r="E140" s="12"/>
     </row>
     <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
-      <c r="E141" s="13"/>
+      <c r="E141" s="12"/>
     </row>
     <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
-      <c r="E142" s="13"/>
+      <c r="E142" s="12"/>
     </row>
     <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
-      <c r="E143" s="13"/>
+      <c r="E143" s="12"/>
     </row>
     <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
-      <c r="E144" s="13"/>
+      <c r="E144" s="12"/>
     </row>
     <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
-      <c r="E145" s="13"/>
+      <c r="E145" s="12"/>
     </row>
     <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
-      <c r="E146" s="13"/>
+      <c r="E146" s="12"/>
     </row>
     <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
-      <c r="E147" s="13"/>
+      <c r="E147" s="12"/>
     </row>
     <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
-      <c r="E148" s="13"/>
+      <c r="E148" s="12"/>
     </row>
     <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
-      <c r="E149" s="13"/>
+      <c r="E149" s="12"/>
     </row>
     <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
-      <c r="E150" s="13"/>
+      <c r="E150" s="12"/>
     </row>
     <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
-      <c r="E151" s="13"/>
+      <c r="E151" s="12"/>
     </row>
     <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
-      <c r="E152" s="13"/>
+      <c r="E152" s="12"/>
     </row>
     <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
-      <c r="E153" s="13"/>
+      <c r="E153" s="12"/>
     </row>
     <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
-      <c r="E154" s="13"/>
+      <c r="E154" s="12"/>
     </row>
     <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
-      <c r="E155" s="13"/>
+      <c r="E155" s="12"/>
     </row>
     <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
-      <c r="E156" s="13"/>
+      <c r="E156" s="12"/>
     </row>
     <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
-      <c r="E157" s="13"/>
+      <c r="E157" s="12"/>
     </row>
     <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
-      <c r="E158" s="13"/>
+      <c r="E158" s="12"/>
     </row>
     <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
-      <c r="E159" s="13"/>
+      <c r="E159" s="12"/>
     </row>
     <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
-      <c r="E160" s="13"/>
+      <c r="E160" s="12"/>
     </row>
     <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
-      <c r="E161" s="13"/>
+      <c r="E161" s="12"/>
     </row>
     <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
-      <c r="E162" s="13"/>
+      <c r="E162" s="12"/>
     </row>
     <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
-      <c r="E163" s="13"/>
+      <c r="E163" s="12"/>
     </row>
     <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
-      <c r="E164" s="13"/>
+      <c r="E164" s="12"/>
     </row>
     <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
-      <c r="E165" s="13"/>
+      <c r="E165" s="12"/>
     </row>
     <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
-      <c r="E166" s="13"/>
+      <c r="E166" s="12"/>
     </row>
     <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
-      <c r="E167" s="13"/>
+      <c r="E167" s="12"/>
     </row>
     <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
-      <c r="E168" s="13"/>
+      <c r="E168" s="12"/>
     </row>
     <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
-      <c r="E169" s="13"/>
+      <c r="E169" s="12"/>
     </row>
     <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
-      <c r="E170" s="13"/>
+      <c r="E170" s="12"/>
     </row>
     <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
-      <c r="E171" s="13"/>
+      <c r="E171" s="12"/>
     </row>
     <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
-      <c r="E172" s="13"/>
+      <c r="E172" s="12"/>
     </row>
     <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
-      <c r="E173" s="13"/>
+      <c r="E173" s="12"/>
     </row>
     <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
-      <c r="E174" s="13"/>
+      <c r="E174" s="12"/>
     </row>
     <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
-      <c r="E175" s="13"/>
+      <c r="E175" s="12"/>
     </row>
     <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
-      <c r="E176" s="13"/>
+      <c r="E176" s="12"/>
     </row>
     <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
-      <c r="E177" s="13"/>
+      <c r="E177" s="12"/>
     </row>
     <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
-      <c r="E178" s="13"/>
+      <c r="E178" s="12"/>
     </row>
     <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
-      <c r="E179" s="13"/>
+      <c r="E179" s="12"/>
     </row>
     <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
-      <c r="E180" s="13"/>
+      <c r="E180" s="12"/>
     </row>
     <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
-      <c r="E181" s="13"/>
+      <c r="E181" s="12"/>
     </row>
     <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
-      <c r="E182" s="13"/>
+      <c r="E182" s="12"/>
     </row>
     <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
-      <c r="E183" s="13"/>
+      <c r="E183" s="12"/>
     </row>
     <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
-      <c r="E184" s="13"/>
+      <c r="E184" s="12"/>
     </row>
     <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
-      <c r="E185" s="13"/>
+      <c r="E185" s="12"/>
     </row>
     <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
-      <c r="E186" s="13"/>
+      <c r="E186" s="12"/>
     </row>
     <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
-      <c r="E187" s="13"/>
+      <c r="E187" s="12"/>
     </row>
     <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
-      <c r="E188" s="13"/>
+      <c r="E188" s="12"/>
     </row>
     <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
-      <c r="E189" s="13"/>
+      <c r="E189" s="12"/>
     </row>
     <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
-      <c r="E190" s="13"/>
+      <c r="E190" s="12"/>
     </row>
     <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
-      <c r="E191" s="13"/>
+      <c r="E191" s="12"/>
     </row>
     <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
-      <c r="E192" s="13"/>
+      <c r="E192" s="12"/>
     </row>
     <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
-      <c r="E193" s="13"/>
+      <c r="E193" s="12"/>
     </row>
     <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
-      <c r="E194" s="13"/>
+      <c r="E194" s="12"/>
     </row>
     <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
-      <c r="E195" s="13"/>
+      <c r="E195" s="12"/>
     </row>
     <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
-      <c r="E196" s="13"/>
+      <c r="E196" s="12"/>
     </row>
     <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
-      <c r="E197" s="13"/>
+      <c r="E197" s="12"/>
     </row>
     <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
-      <c r="E198" s="13"/>
+      <c r="E198" s="12"/>
     </row>
     <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
-      <c r="E199" s="13"/>
+      <c r="E199" s="12"/>
     </row>
     <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
-      <c r="E200" s="13"/>
+      <c r="E200" s="12"/>
     </row>
     <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
-      <c r="E201" s="13"/>
+      <c r="E201" s="12"/>
     </row>
     <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
-      <c r="E202" s="13"/>
+      <c r="E202" s="12"/>
     </row>
     <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
-      <c r="E203" s="13"/>
+      <c r="E203" s="12"/>
     </row>
     <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
-      <c r="E204" s="13"/>
+      <c r="E204" s="12"/>
     </row>
     <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
-      <c r="E205" s="13"/>
+      <c r="E205" s="12"/>
     </row>
     <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
-      <c r="E206" s="13"/>
+      <c r="E206" s="12"/>
     </row>
     <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
-      <c r="E207" s="13"/>
+      <c r="E207" s="12"/>
     </row>
     <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
-      <c r="E208" s="13"/>
+      <c r="E208" s="12"/>
     </row>
     <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
-      <c r="E209" s="13"/>
+      <c r="E209" s="12"/>
     </row>
     <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
-      <c r="E210" s="13"/>
+      <c r="E210" s="12"/>
     </row>
     <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
-      <c r="E211" s="13"/>
+      <c r="E211" s="12"/>
     </row>
     <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
-      <c r="E212" s="13"/>
+      <c r="E212" s="12"/>
     </row>
     <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
-      <c r="E213" s="13"/>
+      <c r="E213" s="12"/>
     </row>
     <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
-      <c r="E214" s="13"/>
+      <c r="E214" s="12"/>
     </row>
     <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
-      <c r="E215" s="13"/>
+      <c r="E215" s="12"/>
     </row>
     <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
-      <c r="E216" s="13"/>
+      <c r="E216" s="12"/>
     </row>
     <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
-      <c r="E217" s="13"/>
+      <c r="E217" s="12"/>
     </row>
     <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
-      <c r="E218" s="13"/>
+      <c r="E218" s="12"/>
     </row>
     <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
-      <c r="E219" s="13"/>
+      <c r="E219" s="12"/>
     </row>
     <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
-      <c r="E220" s="13"/>
+      <c r="E220" s="12"/>
     </row>
     <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
-      <c r="E221" s="13"/>
+      <c r="E221" s="12"/>
     </row>
     <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
-      <c r="E222" s="13"/>
+      <c r="E222" s="12"/>
     </row>
     <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
-      <c r="E223" s="13"/>
+      <c r="E223" s="12"/>
     </row>
     <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
-      <c r="E224" s="13"/>
+      <c r="E224" s="12"/>
     </row>
     <row r="225" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
-      <c r="E225" s="13"/>
+      <c r="E225" s="12"/>
     </row>
     <row r="226" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
-      <c r="E226" s="13"/>
+      <c r="E226" s="12"/>
     </row>
     <row r="227" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
-      <c r="E227" s="13"/>
+      <c r="E227" s="12"/>
     </row>
     <row r="228" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
-      <c r="E228" s="13"/>
+      <c r="E228" s="12"/>
     </row>
     <row r="229" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
-      <c r="E229" s="13"/>
+      <c r="E229" s="12"/>
     </row>
     <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
-      <c r="E230" s="13"/>
+      <c r="E230" s="12"/>
     </row>
     <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
-      <c r="E231" s="13"/>
+      <c r="E231" s="12"/>
     </row>
     <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
-      <c r="E232" s="13"/>
+      <c r="E232" s="12"/>
     </row>
     <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
-      <c r="E233" s="13"/>
+      <c r="E233" s="12"/>
     </row>
     <row r="234" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
-      <c r="E234" s="13"/>
+      <c r="E234" s="12"/>
     </row>
     <row r="235" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
-      <c r="E235" s="13"/>
+      <c r="E235" s="12"/>
     </row>
     <row r="236" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
-      <c r="E236" s="13"/>
+      <c r="E236" s="12"/>
     </row>
     <row r="237" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
-      <c r="E237" s="13"/>
+      <c r="E237" s="12"/>
     </row>
     <row r="238" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
-      <c r="E238" s="13"/>
+      <c r="E238" s="12"/>
     </row>
     <row r="239" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
-      <c r="E239" s="13"/>
+      <c r="E239" s="12"/>
     </row>
     <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
-      <c r="E240" s="13"/>
+      <c r="E240" s="12"/>
     </row>
     <row r="241" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
-      <c r="E241" s="13"/>
+      <c r="E241" s="12"/>
     </row>
     <row r="242" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
-      <c r="E242" s="13"/>
+      <c r="E242" s="12"/>
     </row>
     <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
-      <c r="E243" s="13"/>
+      <c r="E243" s="12"/>
     </row>
     <row r="244" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
-      <c r="E244" s="13"/>
+      <c r="E244" s="12"/>
     </row>
     <row r="245" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
-      <c r="E245" s="13"/>
+      <c r="E245" s="12"/>
     </row>
     <row r="246" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
-      <c r="E246" s="13"/>
+      <c r="E246" s="12"/>
     </row>
     <row r="247" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
-      <c r="E247" s="13"/>
+      <c r="E247" s="12"/>
     </row>
     <row r="248" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
-      <c r="E248" s="13"/>
+      <c r="E248" s="12"/>
     </row>
     <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
-      <c r="E249" s="13"/>
+      <c r="E249" s="12"/>
     </row>
     <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
-      <c r="E250" s="13"/>
+      <c r="E250" s="12"/>
     </row>
     <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
-      <c r="E251" s="13"/>
+      <c r="E251" s="12"/>
     </row>
     <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
-      <c r="E252" s="13"/>
+      <c r="E252" s="12"/>
     </row>
     <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
-      <c r="E253" s="13"/>
+      <c r="E253" s="12"/>
     </row>
     <row r="254" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
-      <c r="E254" s="13"/>
+      <c r="E254" s="12"/>
     </row>
     <row r="255" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
-      <c r="E255" s="13"/>
+      <c r="E255" s="12"/>
     </row>
     <row r="256" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
-      <c r="E256" s="13"/>
+      <c r="E256" s="12"/>
     </row>
     <row r="257" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
-      <c r="E257" s="13"/>
+      <c r="E257" s="12"/>
     </row>
     <row r="258" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
-      <c r="E258" s="13"/>
+      <c r="E258" s="12"/>
     </row>
     <row r="259" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
-      <c r="E259" s="13"/>
+      <c r="E259" s="12"/>
     </row>
     <row r="260" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
-      <c r="E260" s="13"/>
+      <c r="E260" s="12"/>
     </row>
     <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
-      <c r="E261" s="13"/>
+      <c r="E261" s="12"/>
     </row>
     <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
-      <c r="E262" s="13"/>
+      <c r="E262" s="12"/>
     </row>
     <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
-      <c r="E263" s="13"/>
+      <c r="E263" s="12"/>
     </row>
     <row r="264" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
-      <c r="E264" s="13"/>
+      <c r="E264" s="12"/>
     </row>
     <row r="265" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
-      <c r="E265" s="13"/>
+      <c r="E265" s="12"/>
     </row>
     <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
-      <c r="E266" s="13"/>
+      <c r="E266" s="12"/>
     </row>
     <row r="267" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
-      <c r="E267" s="13"/>
+      <c r="E267" s="12"/>
     </row>
     <row r="268" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
-      <c r="E268" s="13"/>
+      <c r="E268" s="12"/>
     </row>
     <row r="269" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
-      <c r="E269" s="13"/>
+      <c r="E269" s="12"/>
     </row>
     <row r="270" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
-      <c r="E270" s="13"/>
+      <c r="E270" s="12"/>
     </row>
     <row r="271" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
-      <c r="E271" s="13"/>
+      <c r="E271" s="12"/>
     </row>
     <row r="272" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
-      <c r="E272" s="13"/>
+      <c r="E272" s="12"/>
     </row>
     <row r="273" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
-      <c r="E273" s="13"/>
+      <c r="E273" s="12"/>
     </row>
     <row r="274" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
-      <c r="E274" s="13"/>
+      <c r="E274" s="12"/>
     </row>
     <row r="275" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
-      <c r="E275" s="13"/>
+      <c r="E275" s="12"/>
     </row>
     <row r="276" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
-      <c r="E276" s="13"/>
+      <c r="E276" s="12"/>
     </row>
     <row r="277" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
-      <c r="E277" s="13"/>
+      <c r="E277" s="12"/>
     </row>
     <row r="278" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
-      <c r="E278" s="13"/>
+      <c r="E278" s="12"/>
     </row>
     <row r="279" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
-      <c r="E279" s="13"/>
+      <c r="E279" s="12"/>
     </row>
     <row r="280" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
-      <c r="E280" s="13"/>
+      <c r="E280" s="12"/>
     </row>
     <row r="281" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
-      <c r="E281" s="13"/>
+      <c r="E281" s="12"/>
     </row>
     <row r="282" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
-      <c r="E282" s="13"/>
+      <c r="E282" s="12"/>
     </row>
     <row r="283" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
-      <c r="E283" s="13"/>
+      <c r="E283" s="12"/>
     </row>
     <row r="284" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
-      <c r="E284" s="13"/>
+      <c r="E284" s="12"/>
     </row>
     <row r="285" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
-      <c r="E285" s="13"/>
+      <c r="E285" s="12"/>
     </row>
     <row r="286" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
-      <c r="E286" s="13"/>
+      <c r="E286" s="12"/>
     </row>
     <row r="287" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
-      <c r="E287" s="13"/>
+      <c r="E287" s="12"/>
     </row>
     <row r="288" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
-      <c r="E288" s="13"/>
+      <c r="E288" s="12"/>
     </row>
     <row r="289" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
-      <c r="E289" s="13"/>
+      <c r="E289" s="12"/>
     </row>
     <row r="290" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
-      <c r="E290" s="13"/>
+      <c r="E290" s="12"/>
     </row>
     <row r="291" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
-      <c r="E291" s="13"/>
+      <c r="E291" s="12"/>
     </row>
     <row r="292" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
-      <c r="E292" s="13"/>
+      <c r="E292" s="12"/>
     </row>
     <row r="293" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
-      <c r="E293" s="13"/>
+      <c r="E293" s="12"/>
     </row>
     <row r="294" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
-      <c r="E294" s="13"/>
+      <c r="E294" s="12"/>
     </row>
     <row r="295" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
-      <c r="E295" s="13"/>
+      <c r="E295" s="12"/>
     </row>
     <row r="296" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
-      <c r="E296" s="13"/>
+      <c r="E296" s="12"/>
     </row>
     <row r="297" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
-      <c r="E297" s="13"/>
+      <c r="E297" s="12"/>
     </row>
     <row r="298" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
-      <c r="E298" s="13"/>
+      <c r="E298" s="12"/>
     </row>
     <row r="299" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
-      <c r="E299" s="13"/>
+      <c r="E299" s="12"/>
     </row>
     <row r="300" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
-      <c r="E300" s="13"/>
+      <c r="E300" s="12"/>
     </row>
     <row r="301" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
-      <c r="E301" s="13"/>
+      <c r="E301" s="12"/>
     </row>
     <row r="302" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
-      <c r="E302" s="13"/>
+      <c r="E302" s="12"/>
     </row>
     <row r="303" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4"/>
-      <c r="E303" s="13"/>
+      <c r="E303" s="12"/>
     </row>
     <row r="304" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4"/>
-      <c r="E304" s="13"/>
+      <c r="E304" s="12"/>
     </row>
     <row r="305" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4"/>
-      <c r="E305" s="13"/>
+      <c r="E305" s="12"/>
     </row>
     <row r="306" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
-      <c r="E306" s="13"/>
+      <c r="E306" s="12"/>
     </row>
     <row r="307" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="4"/>
-      <c r="E307" s="13"/>
+      <c r="E307" s="12"/>
     </row>
     <row r="308" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4"/>
-      <c r="E308" s="13"/>
+      <c r="E308" s="12"/>
     </row>
     <row r="309" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
-      <c r="E309" s="13"/>
+      <c r="E309" s="12"/>
     </row>
     <row r="310" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
-      <c r="E310" s="13"/>
+      <c r="E310" s="12"/>
     </row>
     <row r="311" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
-      <c r="E311" s="13"/>
+      <c r="E311" s="12"/>
     </row>
     <row r="312" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4"/>
-      <c r="E312" s="13"/>
+      <c r="E312" s="12"/>
     </row>
     <row r="313" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
-      <c r="E313" s="13"/>
+      <c r="E313" s="12"/>
     </row>
     <row r="314" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
-      <c r="E314" s="13"/>
+      <c r="E314" s="12"/>
     </row>
     <row r="315" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="4"/>
-      <c r="E315" s="13"/>
+      <c r="E315" s="12"/>
     </row>
     <row r="316" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4"/>
-      <c r="E316" s="13"/>
+      <c r="E316" s="12"/>
     </row>
     <row r="317" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4"/>
-      <c r="E317" s="13"/>
+      <c r="E317" s="12"/>
     </row>
     <row r="318" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4"/>
-      <c r="E318" s="13"/>
+      <c r="E318" s="12"/>
     </row>
     <row r="319" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4"/>
-      <c r="E319" s="13"/>
+      <c r="E319" s="12"/>
     </row>
     <row r="320" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
-      <c r="E320" s="13"/>
+      <c r="E320" s="12"/>
     </row>
     <row r="321" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
-      <c r="E321" s="13"/>
+      <c r="E321" s="12"/>
     </row>
     <row r="322" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
-      <c r="E322" s="13"/>
+      <c r="E322" s="12"/>
     </row>
     <row r="323" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
-      <c r="E323" s="13"/>
+      <c r="E323" s="12"/>
     </row>
     <row r="324" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="4"/>
-      <c r="E324" s="13"/>
+      <c r="E324" s="12"/>
     </row>
     <row r="325" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="4"/>
-      <c r="E325" s="13"/>
+      <c r="E325" s="12"/>
     </row>
     <row r="326" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
-      <c r="E326" s="13"/>
+      <c r="E326" s="12"/>
     </row>
     <row r="327" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4"/>
-      <c r="E327" s="13"/>
+      <c r="E327" s="12"/>
     </row>
     <row r="328" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="4"/>
-      <c r="E328" s="13"/>
+      <c r="E328" s="12"/>
     </row>
     <row r="329" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="4"/>
-      <c r="E329" s="13"/>
+      <c r="E329" s="12"/>
     </row>
     <row r="330" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
-      <c r="E330" s="13"/>
+      <c r="E330" s="12"/>
     </row>
     <row r="331" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="4"/>
-      <c r="E331" s="13"/>
+      <c r="E331" s="12"/>
     </row>
     <row r="332" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
-      <c r="E332" s="13"/>
+      <c r="E332" s="12"/>
     </row>
     <row r="333" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
-      <c r="E333" s="13"/>
+      <c r="E333" s="12"/>
     </row>
     <row r="334" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="4"/>
-      <c r="E334" s="13"/>
+      <c r="E334" s="12"/>
     </row>
     <row r="335" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="4"/>
-      <c r="E335" s="13"/>
+      <c r="E335" s="12"/>
     </row>
     <row r="336" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="4"/>
-      <c r="E336" s="13"/>
+      <c r="E336" s="12"/>
     </row>
     <row r="337" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="4"/>
-      <c r="E337" s="13"/>
+      <c r="E337" s="12"/>
     </row>
     <row r="338" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="4"/>
-      <c r="E338" s="13"/>
+      <c r="E338" s="12"/>
     </row>
     <row r="339" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="4"/>
-      <c r="E339" s="13"/>
+      <c r="E339" s="12"/>
     </row>
     <row r="340" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="4"/>
-      <c r="E340" s="13"/>
+      <c r="E340" s="12"/>
     </row>
     <row r="341" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="4"/>
-      <c r="E341" s="13"/>
+      <c r="E341" s="12"/>
     </row>
     <row r="342" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="4"/>
-      <c r="E342" s="13"/>
+      <c r="E342" s="12"/>
     </row>
     <row r="343" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4"/>
-      <c r="E343" s="13"/>
+      <c r="E343" s="12"/>
     </row>
     <row r="344" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="4"/>
-      <c r="E344" s="13"/>
+      <c r="E344" s="12"/>
     </row>
     <row r="345" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="4"/>
-      <c r="E345" s="13"/>
+      <c r="E345" s="12"/>
     </row>
     <row r="346" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="4"/>
-      <c r="E346" s="13"/>
+      <c r="E346" s="12"/>
     </row>
     <row r="347" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="4"/>
-      <c r="E347" s="13"/>
+      <c r="E347" s="12"/>
     </row>
     <row r="348" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
-      <c r="E348" s="13"/>
+      <c r="E348" s="12"/>
     </row>
     <row r="349" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="4"/>
-      <c r="E349" s="13"/>
+      <c r="E349" s="12"/>
     </row>
     <row r="350" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="4"/>
-      <c r="E350" s="13"/>
+      <c r="E350" s="12"/>
     </row>
     <row r="351" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="4"/>
-      <c r="E351" s="13"/>
+      <c r="E351" s="12"/>
     </row>
     <row r="352" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="4"/>
-      <c r="E352" s="13"/>
+      <c r="E352" s="12"/>
     </row>
     <row r="353" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="4"/>
-      <c r="E353" s="13"/>
+      <c r="E353" s="12"/>
     </row>
     <row r="354" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="4"/>
-      <c r="E354" s="13"/>
+      <c r="E354" s="12"/>
     </row>
     <row r="355" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="4"/>
-      <c r="E355" s="13"/>
+      <c r="E355" s="12"/>
     </row>
     <row r="356" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
-      <c r="E356" s="13"/>
+      <c r="E356" s="12"/>
     </row>
     <row r="357" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
-      <c r="E357" s="13"/>
+      <c r="E357" s="12"/>
     </row>
     <row r="358" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
-      <c r="E358" s="13"/>
+      <c r="E358" s="12"/>
     </row>
     <row r="359" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
-      <c r="E359" s="13"/>
+      <c r="E359" s="12"/>
     </row>
     <row r="360" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="4"/>
-      <c r="E360" s="13"/>
+      <c r="E360" s="12"/>
     </row>
     <row r="361" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="4"/>
-      <c r="E361" s="13"/>
+      <c r="E361" s="12"/>
     </row>
     <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="4"/>
-      <c r="E362" s="13"/>
+      <c r="E362" s="12"/>
     </row>
     <row r="363" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="4"/>
-      <c r="E363" s="13"/>
+      <c r="E363" s="12"/>
     </row>
     <row r="364" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="4"/>
-      <c r="E364" s="13"/>
+      <c r="E364" s="12"/>
     </row>
     <row r="365" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="4"/>
-      <c r="E365" s="13"/>
+      <c r="E365" s="12"/>
     </row>
     <row r="366" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="4"/>
-      <c r="E366" s="13"/>
+      <c r="E366" s="12"/>
     </row>
     <row r="367" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="4"/>
-      <c r="E367" s="13"/>
+      <c r="E367" s="12"/>
     </row>
     <row r="368" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="4"/>
-      <c r="E368" s="13"/>
+      <c r="E368" s="12"/>
     </row>
     <row r="369" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
-      <c r="E369" s="13"/>
+      <c r="E369" s="12"/>
     </row>
     <row r="370" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="4"/>
-      <c r="E370" s="13"/>
+      <c r="E370" s="12"/>
     </row>
     <row r="371" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="4"/>
-      <c r="E371" s="13"/>
+      <c r="E371" s="12"/>
     </row>
     <row r="372" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="4"/>
-      <c r="E372" s="13"/>
+      <c r="E372" s="12"/>
     </row>
     <row r="373" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="4"/>
-      <c r="E373" s="13"/>
+      <c r="E373" s="12"/>
     </row>
     <row r="374" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="4"/>
-      <c r="E374" s="13"/>
+      <c r="E374" s="12"/>
     </row>
     <row r="375" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="4"/>
-      <c r="E375" s="13"/>
+      <c r="E375" s="12"/>
     </row>
     <row r="376" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="4"/>
-      <c r="E376" s="13"/>
+      <c r="E376" s="12"/>
     </row>
     <row r="377" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="4"/>
-      <c r="E377" s="13"/>
+      <c r="E377" s="12"/>
     </row>
     <row r="378" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="4"/>
-      <c r="E378" s="13"/>
+      <c r="E378" s="12"/>
     </row>
     <row r="379" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="4"/>
-      <c r="E379" s="13"/>
+      <c r="E379" s="12"/>
     </row>
     <row r="380" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="4"/>
-      <c r="E380" s="13"/>
+      <c r="E380" s="12"/>
     </row>
     <row r="381" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="4"/>
-      <c r="E381" s="13"/>
+      <c r="E381" s="12"/>
     </row>
     <row r="382" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="4"/>
-      <c r="E382" s="13"/>
+      <c r="E382" s="12"/>
     </row>
     <row r="383" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="4"/>
-      <c r="E383" s="13"/>
+      <c r="E383" s="12"/>
     </row>
     <row r="384" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="4"/>
-      <c r="E384" s="13"/>
+      <c r="E384" s="12"/>
     </row>
     <row r="385" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="4"/>
-      <c r="E385" s="13"/>
+      <c r="E385" s="12"/>
     </row>
     <row r="386" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="4"/>
-      <c r="E386" s="13"/>
+      <c r="E386" s="12"/>
     </row>
     <row r="387" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="4"/>
-      <c r="E387" s="13"/>
+      <c r="E387" s="12"/>
     </row>
     <row r="388" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="4"/>
-      <c r="E388" s="13"/>
+      <c r="E388" s="12"/>
     </row>
     <row r="389" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="4"/>
-      <c r="E389" s="13"/>
+      <c r="E389" s="12"/>
     </row>
     <row r="390" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="4"/>
-      <c r="E390" s="13"/>
+      <c r="E390" s="12"/>
     </row>
     <row r="391" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="4"/>
-      <c r="E391" s="13"/>
+      <c r="E391" s="12"/>
     </row>
     <row r="392" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
-      <c r="E392" s="13"/>
+      <c r="E392" s="12"/>
     </row>
     <row r="393" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="4"/>
-      <c r="E393" s="13"/>
+      <c r="E393" s="12"/>
     </row>
     <row r="394" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
-      <c r="E394" s="13"/>
+      <c r="E394" s="12"/>
     </row>
     <row r="395" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
-      <c r="E395" s="13"/>
+      <c r="E395" s="12"/>
     </row>
     <row r="396" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="4"/>
-      <c r="E396" s="13"/>
+      <c r="E396" s="12"/>
     </row>
     <row r="397" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="4"/>
-      <c r="E397" s="13"/>
+      <c r="E397" s="12"/>
     </row>
     <row r="398" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="4"/>
-      <c r="E398" s="13"/>
+      <c r="E398" s="12"/>
     </row>
     <row r="399" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="4"/>
-      <c r="E399" s="13"/>
+      <c r="E399" s="12"/>
     </row>
     <row r="400" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="4"/>
-      <c r="E400" s="13"/>
+      <c r="E400" s="12"/>
     </row>
     <row r="401" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="4"/>
-      <c r="E401" s="13"/>
+      <c r="E401" s="12"/>
     </row>
     <row r="402" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="4"/>
-      <c r="E402" s="13"/>
+      <c r="E402" s="12"/>
     </row>
     <row r="403" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="4"/>
-      <c r="E403" s="13"/>
+      <c r="E403" s="12"/>
     </row>
     <row r="404" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
-      <c r="E404" s="13"/>
+      <c r="E404" s="12"/>
     </row>
     <row r="405" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
-      <c r="E405" s="13"/>
+      <c r="E405" s="12"/>
     </row>
     <row r="406" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="4"/>
-      <c r="E406" s="13"/>
+      <c r="E406" s="12"/>
     </row>
     <row r="407" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="4"/>
-      <c r="E407" s="13"/>
+      <c r="E407" s="12"/>
     </row>
     <row r="408" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="4"/>
-      <c r="E408" s="13"/>
+      <c r="E408" s="12"/>
     </row>
     <row r="409" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="4"/>
-      <c r="E409" s="13"/>
+      <c r="E409" s="12"/>
     </row>
     <row r="410" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="4"/>
-      <c r="E410" s="13"/>
+      <c r="E410" s="12"/>
     </row>
     <row r="411" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="4"/>
-      <c r="E411" s="13"/>
+      <c r="E411" s="12"/>
     </row>
     <row r="412" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="4"/>
-      <c r="E412" s="13"/>
+      <c r="E412" s="12"/>
     </row>
     <row r="413" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="4"/>
-      <c r="E413" s="13"/>
+      <c r="E413" s="12"/>
     </row>
     <row r="414" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="4"/>
-      <c r="E414" s="13"/>
+      <c r="E414" s="12"/>
     </row>
     <row r="415" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="4"/>
-      <c r="E415" s="13"/>
+      <c r="E415" s="12"/>
     </row>
     <row r="416" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="4"/>
-      <c r="E416" s="13"/>
+      <c r="E416" s="12"/>
     </row>
     <row r="417" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="4"/>
-      <c r="E417" s="13"/>
+      <c r="E417" s="12"/>
     </row>
     <row r="418" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
-      <c r="E418" s="13"/>
+      <c r="E418" s="12"/>
     </row>
     <row r="419" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="4"/>
-      <c r="E419" s="13"/>
+      <c r="E419" s="12"/>
     </row>
     <row r="420" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="4"/>
-      <c r="E420" s="13"/>
+      <c r="E420" s="12"/>
     </row>
     <row r="421" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="4"/>
-      <c r="E421" s="13"/>
+      <c r="E421" s="12"/>
     </row>
     <row r="422" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="4"/>
-      <c r="E422" s="13"/>
+      <c r="E422" s="12"/>
     </row>
     <row r="423" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="4"/>
-      <c r="E423" s="13"/>
+      <c r="E423" s="12"/>
     </row>
     <row r="424" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="4"/>
-      <c r="E424" s="13"/>
+      <c r="E424" s="12"/>
     </row>
     <row r="425" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="4"/>
-      <c r="E425" s="13"/>
+      <c r="E425" s="12"/>
     </row>
     <row r="426" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="4"/>
-      <c r="E426" s="13"/>
+      <c r="E426" s="12"/>
     </row>
     <row r="427" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="4"/>
-      <c r="E427" s="13"/>
+      <c r="E427" s="12"/>
     </row>
     <row r="428" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="4"/>
-      <c r="E428" s="13"/>
+      <c r="E428" s="12"/>
     </row>
     <row r="429" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="4"/>
-      <c r="E429" s="13"/>
+      <c r="E429" s="12"/>
     </row>
     <row r="430" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
-      <c r="E430" s="13"/>
+      <c r="E430" s="12"/>
     </row>
     <row r="431" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
-      <c r="E431" s="13"/>
+      <c r="E431" s="12"/>
     </row>
     <row r="432" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="4"/>
-      <c r="E432" s="13"/>
+      <c r="E432" s="12"/>
     </row>
     <row r="433" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="4"/>
-      <c r="E433" s="13"/>
+      <c r="E433" s="12"/>
     </row>
     <row r="434" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="4"/>
-      <c r="E434" s="13"/>
+      <c r="E434" s="12"/>
     </row>
     <row r="435" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="4"/>
-      <c r="E435" s="13"/>
+      <c r="E435" s="12"/>
     </row>
     <row r="436" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="4"/>
-      <c r="E436" s="13"/>
+      <c r="E436" s="12"/>
     </row>
     <row r="437" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="4"/>
-      <c r="E437" s="13"/>
+      <c r="E437" s="12"/>
     </row>
     <row r="438" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="4"/>
-      <c r="E438" s="13"/>
+      <c r="E438" s="12"/>
     </row>
     <row r="439" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="4"/>
-      <c r="E439" s="13"/>
+      <c r="E439" s="12"/>
     </row>
     <row r="440" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
-      <c r="E440" s="13"/>
+      <c r="E440" s="12"/>
     </row>
     <row r="441" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
-      <c r="E441" s="13"/>
+      <c r="E441" s="12"/>
     </row>
     <row r="442" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="4"/>
-      <c r="E442" s="13"/>
+      <c r="E442" s="12"/>
     </row>
     <row r="443" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="4"/>
-      <c r="E443" s="13"/>
+      <c r="E443" s="12"/>
     </row>
     <row r="444" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="4"/>
-      <c r="E444" s="13"/>
+      <c r="E444" s="12"/>
     </row>
     <row r="445" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="4"/>
-      <c r="E445" s="13"/>
+      <c r="E445" s="12"/>
     </row>
     <row r="446" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="4"/>
-      <c r="E446" s="13"/>
+      <c r="E446" s="12"/>
     </row>
     <row r="447" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="4"/>
-      <c r="E447" s="13"/>
+      <c r="E447" s="12"/>
     </row>
     <row r="448" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="4"/>
-      <c r="E448" s="13"/>
+      <c r="E448" s="12"/>
     </row>
     <row r="449" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="4"/>
-      <c r="E449" s="13"/>
+      <c r="E449" s="12"/>
     </row>
     <row r="450" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="4"/>
-      <c r="E450" s="13"/>
+      <c r="E450" s="12"/>
     </row>
     <row r="451" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="4"/>
-      <c r="E451" s="13"/>
+      <c r="E451" s="12"/>
     </row>
     <row r="452" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="4"/>
-      <c r="E452" s="13"/>
+      <c r="E452" s="12"/>
     </row>
     <row r="453" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="4"/>
-      <c r="E453" s="13"/>
+      <c r="E453" s="12"/>
     </row>
     <row r="454" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="4"/>
-      <c r="E454" s="13"/>
+      <c r="E454" s="12"/>
     </row>
     <row r="455" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="4"/>
-      <c r="E455" s="13"/>
+      <c r="E455" s="12"/>
     </row>
     <row r="456" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="4"/>
-      <c r="E456" s="13"/>
+      <c r="E456" s="12"/>
     </row>
     <row r="457" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="4"/>
-      <c r="E457" s="13"/>
+      <c r="E457" s="12"/>
     </row>
     <row r="458" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="4"/>
-      <c r="E458" s="13"/>
+      <c r="E458" s="12"/>
     </row>
     <row r="459" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="4"/>
-      <c r="E459" s="13"/>
+      <c r="E459" s="12"/>
     </row>
     <row r="460" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="4"/>
-      <c r="E460" s="13"/>
+      <c r="E460" s="12"/>
     </row>
     <row r="461" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="4"/>
-      <c r="E461" s="13"/>
+      <c r="E461" s="12"/>
     </row>
     <row r="462" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="4"/>
-      <c r="E462" s="13"/>
+      <c r="E462" s="12"/>
     </row>
     <row r="463" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="4"/>
-      <c r="E463" s="13"/>
+      <c r="E463" s="12"/>
     </row>
     <row r="464" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="4"/>
-      <c r="E464" s="13"/>
+      <c r="E464" s="12"/>
     </row>
     <row r="465" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="4"/>
-      <c r="E465" s="13"/>
+      <c r="E465" s="12"/>
     </row>
     <row r="466" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="4"/>
-      <c r="E466" s="13"/>
+      <c r="E466" s="12"/>
     </row>
     <row r="467" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="4"/>
-      <c r="E467" s="13"/>
+      <c r="E467" s="12"/>
     </row>
     <row r="468" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="4"/>
-      <c r="E468" s="13"/>
+      <c r="E468" s="12"/>
     </row>
     <row r="469" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="4"/>
-      <c r="E469" s="13"/>
+      <c r="E469" s="12"/>
     </row>
     <row r="470" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="4"/>
-      <c r="E470" s="13"/>
+      <c r="E470" s="12"/>
     </row>
     <row r="471" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="4"/>
-      <c r="E471" s="13"/>
+      <c r="E471" s="12"/>
     </row>
     <row r="472" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="4"/>
-      <c r="E472" s="13"/>
+      <c r="E472" s="12"/>
     </row>
     <row r="473" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="4"/>
-      <c r="E473" s="13"/>
+      <c r="E473" s="12"/>
     </row>
     <row r="474" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="4"/>
-      <c r="E474" s="13"/>
+      <c r="E474" s="12"/>
     </row>
     <row r="475" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="4"/>
-      <c r="E475" s="13"/>
+      <c r="E475" s="12"/>
     </row>
     <row r="476" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="4"/>
-      <c r="E476" s="13"/>
+      <c r="E476" s="12"/>
     </row>
     <row r="477" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="4"/>
-      <c r="E477" s="13"/>
+      <c r="E477" s="12"/>
     </row>
     <row r="478" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="4"/>
-      <c r="E478" s="13"/>
+      <c r="E478" s="12"/>
     </row>
     <row r="479" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="4"/>
-      <c r="E479" s="13"/>
+      <c r="E479" s="12"/>
     </row>
     <row r="480" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="4"/>
-      <c r="E480" s="13"/>
+      <c r="E480" s="12"/>
     </row>
     <row r="481" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="4"/>
-      <c r="E481" s="13"/>
+      <c r="E481" s="12"/>
     </row>
     <row r="482" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="4"/>
-      <c r="E482" s="13"/>
+      <c r="E482" s="12"/>
     </row>
     <row r="483" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="4"/>
-      <c r="E483" s="13"/>
+      <c r="E483" s="12"/>
     </row>
     <row r="484" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="4"/>
-      <c r="E484" s="13"/>
+      <c r="E484" s="12"/>
     </row>
     <row r="485" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="4"/>
-      <c r="E485" s="13"/>
+      <c r="E485" s="12"/>
     </row>
     <row r="486" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="4"/>
-      <c r="E486" s="13"/>
+      <c r="E486" s="12"/>
     </row>
     <row r="487" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="4"/>
-      <c r="E487" s="13"/>
+      <c r="E487" s="12"/>
     </row>
     <row r="488" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="4"/>
-      <c r="E488" s="13"/>
+      <c r="E488" s="12"/>
     </row>
     <row r="489" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="4"/>
-      <c r="E489" s="13"/>
+      <c r="E489" s="12"/>
     </row>
     <row r="490" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="4"/>
-      <c r="E490" s="13"/>
+      <c r="E490" s="12"/>
     </row>
     <row r="491" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="4"/>
-      <c r="E491" s="13"/>
+      <c r="E491" s="12"/>
     </row>
     <row r="492" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="4"/>
-      <c r="E492" s="13"/>
+      <c r="E492" s="12"/>
     </row>
     <row r="493" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="4"/>
-      <c r="E493" s="13"/>
+      <c r="E493" s="12"/>
     </row>
     <row r="494" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="4"/>
-      <c r="E494" s="13"/>
+      <c r="E494" s="12"/>
     </row>
     <row r="495" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="4"/>
-      <c r="E495" s="13"/>
+      <c r="E495" s="12"/>
     </row>
     <row r="496" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="4"/>
-      <c r="E496" s="13"/>
+      <c r="E496" s="12"/>
     </row>
     <row r="497" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="4"/>
-      <c r="E497" s="13"/>
+      <c r="E497" s="12"/>
     </row>
     <row r="498" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="4"/>
-      <c r="E498" s="13"/>
+      <c r="E498" s="12"/>
     </row>
     <row r="499" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="4"/>
-      <c r="E499" s="13"/>
+      <c r="E499" s="12"/>
     </row>
     <row r="500" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="4"/>
-      <c r="E500" s="13"/>
+      <c r="E500" s="12"/>
     </row>
     <row r="501" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="4"/>
-      <c r="E501" s="13"/>
+      <c r="E501" s="12"/>
     </row>
     <row r="502" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="4"/>
-      <c r="E502" s="13"/>
+      <c r="E502" s="12"/>
     </row>
     <row r="503" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="4"/>
-      <c r="E503" s="13"/>
+      <c r="E503" s="12"/>
     </row>
     <row r="504" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="4"/>
-      <c r="E504" s="13"/>
+      <c r="E504" s="12"/>
     </row>
     <row r="505" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="4"/>
-      <c r="E505" s="13"/>
+      <c r="E505" s="12"/>
     </row>
     <row r="506" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="4"/>
-      <c r="E506" s="13"/>
+      <c r="E506" s="12"/>
     </row>
     <row r="507" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="4"/>
-      <c r="E507" s="13"/>
+      <c r="E507" s="12"/>
     </row>
     <row r="508" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="4"/>
-      <c r="E508" s="13"/>
+      <c r="E508" s="12"/>
     </row>
     <row r="509" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="4"/>
-      <c r="E509" s="13"/>
+      <c r="E509" s="12"/>
     </row>
     <row r="510" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="4"/>
-      <c r="E510" s="13"/>
+      <c r="E510" s="12"/>
     </row>
     <row r="511" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="4"/>
-      <c r="E511" s="13"/>
+      <c r="E511" s="12"/>
     </row>
     <row r="512" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="4"/>
-      <c r="E512" s="13"/>
+      <c r="E512" s="12"/>
     </row>
     <row r="513" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="4"/>
-      <c r="E513" s="13"/>
+      <c r="E513" s="12"/>
     </row>
     <row r="514" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="4"/>
-      <c r="E514" s="13"/>
+      <c r="E514" s="12"/>
     </row>
     <row r="515" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="4"/>
-      <c r="E515" s="13"/>
+      <c r="E515" s="12"/>
     </row>
     <row r="516" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="4"/>
-      <c r="E516" s="13"/>
+      <c r="E516" s="12"/>
     </row>
     <row r="517" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="4"/>
-      <c r="E517" s="13"/>
+      <c r="E517" s="12"/>
     </row>
     <row r="518" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="4"/>
-      <c r="E518" s="13"/>
+      <c r="E518" s="12"/>
     </row>
     <row r="519" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="4"/>
-      <c r="E519" s="13"/>
+      <c r="E519" s="12"/>
     </row>
     <row r="520" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="4"/>
-      <c r="E520" s="13"/>
+      <c r="E520" s="12"/>
     </row>
     <row r="521" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="4"/>
-      <c r="E521" s="13"/>
+      <c r="E521" s="12"/>
     </row>
     <row r="522" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="4"/>
-      <c r="E522" s="13"/>
+      <c r="E522" s="12"/>
     </row>
     <row r="523" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="4"/>
-      <c r="E523" s="13"/>
+      <c r="E523" s="12"/>
     </row>
     <row r="524" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="4"/>
-      <c r="E524" s="13"/>
+      <c r="E524" s="12"/>
     </row>
     <row r="525" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="4"/>
-      <c r="E525" s="13"/>
+      <c r="E525" s="12"/>
     </row>
     <row r="526" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="4"/>
-      <c r="E526" s="13"/>
+      <c r="E526" s="12"/>
     </row>
     <row r="527" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="4"/>
-      <c r="E527" s="13"/>
+      <c r="E527" s="12"/>
     </row>
     <row r="528" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="4"/>
-      <c r="E528" s="13"/>
+      <c r="E528" s="12"/>
     </row>
     <row r="529" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="4"/>
-      <c r="E529" s="13"/>
+      <c r="E529" s="12"/>
     </row>
     <row r="530" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="4"/>
-      <c r="E530" s="13"/>
+      <c r="E530" s="12"/>
     </row>
     <row r="531" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="4"/>
-      <c r="E531" s="13"/>
+      <c r="E531" s="12"/>
     </row>
     <row r="532" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="4"/>
-      <c r="E532" s="13"/>
+      <c r="E532" s="12"/>
     </row>
     <row r="533" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="4"/>
-      <c r="E533" s="13"/>
+      <c r="E533" s="12"/>
     </row>
     <row r="534" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="4"/>
-      <c r="E534" s="13"/>
+      <c r="E534" s="12"/>
     </row>
     <row r="535" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="4"/>
-      <c r="E535" s="13"/>
+      <c r="E535" s="12"/>
     </row>
     <row r="536" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="4"/>
-      <c r="E536" s="13"/>
+      <c r="E536" s="12"/>
     </row>
     <row r="537" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="4"/>
-      <c r="E537" s="13"/>
+      <c r="E537" s="12"/>
     </row>
     <row r="538" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="4"/>
-      <c r="E538" s="13"/>
+      <c r="E538" s="12"/>
     </row>
     <row r="539" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="4"/>
-      <c r="E539" s="13"/>
+      <c r="E539" s="12"/>
     </row>
     <row r="540" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="4"/>
-      <c r="E540" s="13"/>
+      <c r="E540" s="12"/>
     </row>
     <row r="541" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="4"/>
-      <c r="E541" s="13"/>
+      <c r="E541" s="12"/>
     </row>
     <row r="542" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="4"/>
-      <c r="E542" s="13"/>
+      <c r="E542" s="12"/>
     </row>
     <row r="543" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="4"/>
-      <c r="E543" s="13"/>
+      <c r="E543" s="12"/>
     </row>
     <row r="544" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="4"/>
-      <c r="E544" s="13"/>
+      <c r="E544" s="12"/>
     </row>
     <row r="545" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="4"/>
-      <c r="E545" s="13"/>
+      <c r="E545" s="12"/>
     </row>
     <row r="546" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="4"/>
-      <c r="E546" s="13"/>
+      <c r="E546" s="12"/>
     </row>
     <row r="547" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="4"/>
-      <c r="E547" s="13"/>
+      <c r="E547" s="12"/>
     </row>
     <row r="548" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="4"/>
-      <c r="E548" s="13"/>
+      <c r="E548" s="12"/>
     </row>
     <row r="549" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="4"/>
-      <c r="E549" s="13"/>
+      <c r="E549" s="12"/>
     </row>
     <row r="550" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="4"/>
-      <c r="E550" s="13"/>
+      <c r="E550" s="12"/>
     </row>
     <row r="551" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="4"/>
-      <c r="E551" s="13"/>
+      <c r="E551" s="12"/>
     </row>
     <row r="552" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="4"/>
-      <c r="E552" s="13"/>
+      <c r="E552" s="12"/>
     </row>
     <row r="553" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="4"/>
-      <c r="E553" s="13"/>
+      <c r="E553" s="12"/>
     </row>
     <row r="554" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="4"/>
-      <c r="E554" s="13"/>
+      <c r="E554" s="12"/>
     </row>
     <row r="555" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="4"/>
-      <c r="E555" s="13"/>
+      <c r="E555" s="12"/>
     </row>
     <row r="556" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="4"/>
-      <c r="E556" s="13"/>
+      <c r="E556" s="12"/>
     </row>
     <row r="557" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="4"/>
-      <c r="E557" s="13"/>
+      <c r="E557" s="12"/>
     </row>
     <row r="558" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="4"/>
-      <c r="E558" s="13"/>
+      <c r="E558" s="12"/>
     </row>
     <row r="559" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="4"/>
-      <c r="E559" s="13"/>
+      <c r="E559" s="12"/>
     </row>
     <row r="560" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="4"/>
-      <c r="E560" s="13"/>
+      <c r="E560" s="12"/>
     </row>
     <row r="561" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="4"/>
-      <c r="E561" s="13"/>
+      <c r="E561" s="12"/>
     </row>
     <row r="562" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="4"/>
-      <c r="E562" s="13"/>
+      <c r="E562" s="12"/>
     </row>
     <row r="563" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="4"/>
-      <c r="E563" s="13"/>
+      <c r="E563" s="12"/>
     </row>
     <row r="564" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="4"/>
-      <c r="E564" s="13"/>
+      <c r="E564" s="12"/>
     </row>
     <row r="565" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="4"/>
-      <c r="E565" s="13"/>
+      <c r="E565" s="12"/>
     </row>
     <row r="566" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="4"/>
-      <c r="E566" s="13"/>
+      <c r="E566" s="12"/>
     </row>
     <row r="567" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="4"/>
-      <c r="E567" s="13"/>
+      <c r="E567" s="12"/>
     </row>
     <row r="568" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="4"/>
-      <c r="E568" s="13"/>
+      <c r="E568" s="12"/>
     </row>
     <row r="569" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="4"/>
-      <c r="E569" s="13"/>
+      <c r="E569" s="12"/>
     </row>
     <row r="570" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="4"/>
-      <c r="E570" s="13"/>
+      <c r="E570" s="12"/>
     </row>
     <row r="571" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="4"/>
-      <c r="E571" s="13"/>
+      <c r="E571" s="12"/>
     </row>
     <row r="572" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="4"/>
-      <c r="E572" s="13"/>
+      <c r="E572" s="12"/>
     </row>
     <row r="573" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="4"/>
-      <c r="E573" s="13"/>
+      <c r="E573" s="12"/>
     </row>
     <row r="574" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="4"/>
-      <c r="E574" s="13"/>
+      <c r="E574" s="12"/>
     </row>
     <row r="575" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="4"/>
-      <c r="E575" s="13"/>
+      <c r="E575" s="12"/>
     </row>
     <row r="576" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="4"/>
-      <c r="E576" s="13"/>
+      <c r="E576" s="12"/>
     </row>
     <row r="577" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="4"/>
-      <c r="E577" s="13"/>
+      <c r="E577" s="12"/>
     </row>
     <row r="578" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="4"/>
-      <c r="E578" s="13"/>
+      <c r="E578" s="12"/>
     </row>
     <row r="579" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="4"/>
-      <c r="E579" s="13"/>
+      <c r="E579" s="12"/>
     </row>
     <row r="580" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="4"/>
-      <c r="E580" s="13"/>
+      <c r="E580" s="12"/>
     </row>
     <row r="581" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="4"/>
-      <c r="E581" s="13"/>
+      <c r="E581" s="12"/>
     </row>
     <row r="582" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="4"/>
-      <c r="E582" s="13"/>
+      <c r="E582" s="12"/>
     </row>
     <row r="583" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="4"/>
-      <c r="E583" s="13"/>
+      <c r="E583" s="12"/>
     </row>
     <row r="584" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="4"/>
-      <c r="E584" s="13"/>
+      <c r="E584" s="12"/>
     </row>
     <row r="585" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="4"/>
-      <c r="E585" s="13"/>
+      <c r="E585" s="12"/>
     </row>
     <row r="586" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="4"/>
-      <c r="E586" s="13"/>
+      <c r="E586" s="12"/>
     </row>
     <row r="587" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="4"/>
-      <c r="E587" s="13"/>
+      <c r="E587" s="12"/>
     </row>
     <row r="588" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="4"/>
-      <c r="E588" s="13"/>
+      <c r="E588" s="12"/>
     </row>
     <row r="589" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="4"/>
-      <c r="E589" s="13"/>
+      <c r="E589" s="12"/>
     </row>
     <row r="590" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="4"/>
-      <c r="E590" s="13"/>
+      <c r="E590" s="12"/>
     </row>
     <row r="591" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="4"/>
-      <c r="E591" s="13"/>
+      <c r="E591" s="12"/>
     </row>
     <row r="592" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="4"/>
-      <c r="E592" s="13"/>
+      <c r="E592" s="12"/>
     </row>
     <row r="593" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="4"/>
-      <c r="E593" s="13"/>
+      <c r="E593" s="12"/>
     </row>
     <row r="594" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="4"/>
-      <c r="E594" s="13"/>
+      <c r="E594" s="12"/>
     </row>
     <row r="595" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="4"/>
-      <c r="E595" s="13"/>
+      <c r="E595" s="12"/>
     </row>
     <row r="596" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="4"/>
-      <c r="E596" s="13"/>
+      <c r="E596" s="12"/>
     </row>
     <row r="597" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="4"/>
-      <c r="E597" s="13"/>
+      <c r="E597" s="12"/>
     </row>
     <row r="598" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="4"/>
-      <c r="E598" s="13"/>
+      <c r="E598" s="12"/>
     </row>
     <row r="599" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="4"/>
-      <c r="E599" s="13"/>
+      <c r="E599" s="12"/>
     </row>
     <row r="600" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="4"/>
-      <c r="E600" s="13"/>
+      <c r="E600" s="12"/>
     </row>
     <row r="601" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="4"/>
-      <c r="E601" s="13"/>
+      <c r="E601" s="12"/>
     </row>
     <row r="602" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="4"/>
-      <c r="E602" s="13"/>
+      <c r="E602" s="12"/>
     </row>
     <row r="603" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="4"/>
-      <c r="E603" s="13"/>
+      <c r="E603" s="12"/>
     </row>
     <row r="604" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="4"/>
-      <c r="E604" s="13"/>
+      <c r="E604" s="12"/>
     </row>
     <row r="605" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="4"/>
-      <c r="E605" s="13"/>
+      <c r="E605" s="12"/>
     </row>
     <row r="606" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="4"/>
-      <c r="E606" s="13"/>
+      <c r="E606" s="12"/>
     </row>
     <row r="607" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="4"/>
-      <c r="E607" s="13"/>
+      <c r="E607" s="12"/>
     </row>
     <row r="608" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="4"/>
-      <c r="E608" s="13"/>
+      <c r="E608" s="12"/>
     </row>
     <row r="609" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="4"/>
-      <c r="E609" s="13"/>
+      <c r="E609" s="12"/>
     </row>
     <row r="610" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="4"/>
-      <c r="E610" s="13"/>
+      <c r="E610" s="12"/>
     </row>
     <row r="611" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="4"/>
-      <c r="E611" s="13"/>
+      <c r="E611" s="12"/>
     </row>
     <row r="612" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="4"/>
-      <c r="E612" s="13"/>
+      <c r="E612" s="12"/>
     </row>
     <row r="613" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="4"/>
-      <c r="E613" s="13"/>
+      <c r="E613" s="12"/>
     </row>
     <row r="614" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="4"/>
-      <c r="E614" s="13"/>
+      <c r="E614" s="12"/>
     </row>
     <row r="615" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="4"/>
-      <c r="E615" s="13"/>
+      <c r="E615" s="12"/>
     </row>
     <row r="616" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="4"/>
-      <c r="E616" s="13"/>
+      <c r="E616" s="12"/>
     </row>
     <row r="617" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="4"/>
-      <c r="E617" s="13"/>
+      <c r="E617" s="12"/>
     </row>
     <row r="618" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="4"/>
-      <c r="E618" s="13"/>
+      <c r="E618" s="12"/>
     </row>
     <row r="619" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="4"/>
-      <c r="E619" s="13"/>
+      <c r="E619" s="12"/>
     </row>
     <row r="620" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="4"/>
-      <c r="E620" s="13"/>
+      <c r="E620" s="12"/>
     </row>
     <row r="621" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="4"/>
-      <c r="E621" s="13"/>
+      <c r="E621" s="12"/>
     </row>
     <row r="622" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="4"/>
-      <c r="E622" s="13"/>
+      <c r="E622" s="12"/>
     </row>
     <row r="623" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="4"/>
-      <c r="E623" s="13"/>
+      <c r="E623" s="12"/>
     </row>
     <row r="624" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="4"/>
-      <c r="E624" s="13"/>
+      <c r="E624" s="12"/>
     </row>
     <row r="625" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="4"/>
-      <c r="E625" s="13"/>
+      <c r="E625" s="12"/>
     </row>
     <row r="626" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="4"/>
-      <c r="E626" s="13"/>
+      <c r="E626" s="12"/>
     </row>
     <row r="627" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="4"/>
-      <c r="E627" s="13"/>
+      <c r="E627" s="12"/>
     </row>
     <row r="628" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="4"/>
-      <c r="E628" s="13"/>
+      <c r="E628" s="12"/>
     </row>
     <row r="629" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="4"/>
-      <c r="E629" s="13"/>
+      <c r="E629" s="12"/>
     </row>
     <row r="630" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="4"/>
-      <c r="E630" s="13"/>
+      <c r="E630" s="12"/>
     </row>
     <row r="631" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="4"/>
-      <c r="E631" s="13"/>
+      <c r="E631" s="12"/>
     </row>
     <row r="632" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="4"/>
-      <c r="E632" s="13"/>
+      <c r="E632" s="12"/>
     </row>
     <row r="633" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="4"/>
-      <c r="E633" s="13"/>
+      <c r="E633" s="12"/>
     </row>
     <row r="634" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="4"/>
-      <c r="E634" s="13"/>
+      <c r="E634" s="12"/>
     </row>
     <row r="635" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="4"/>
-      <c r="E635" s="13"/>
+      <c r="E635" s="12"/>
     </row>
     <row r="636" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="4"/>
-      <c r="E636" s="13"/>
+      <c r="E636" s="12"/>
     </row>
     <row r="637" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="4"/>
-      <c r="E637" s="13"/>
+      <c r="E637" s="12"/>
     </row>
     <row r="638" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="4"/>
-      <c r="E638" s="13"/>
+      <c r="E638" s="12"/>
     </row>
     <row r="639" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="4"/>
-      <c r="E639" s="13"/>
+      <c r="E639" s="12"/>
     </row>
     <row r="640" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="4"/>
-      <c r="E640" s="13"/>
+      <c r="E640" s="12"/>
     </row>
     <row r="641" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="4"/>
-      <c r="E641" s="13"/>
+      <c r="E641" s="12"/>
     </row>
     <row r="642" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="4"/>
-      <c r="E642" s="13"/>
+      <c r="E642" s="12"/>
     </row>
     <row r="643" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="4"/>
-      <c r="E643" s="13"/>
+      <c r="E643" s="12"/>
     </row>
     <row r="644" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="4"/>
-      <c r="E644" s="13"/>
+      <c r="E644" s="12"/>
     </row>
     <row r="645" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="4"/>
-      <c r="E645" s="13"/>
+      <c r="E645" s="12"/>
     </row>
     <row r="646" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="4"/>
-      <c r="E646" s="13"/>
+      <c r="E646" s="12"/>
     </row>
     <row r="647" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="4"/>
-      <c r="E647" s="13"/>
+      <c r="E647" s="12"/>
     </row>
     <row r="648" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="4"/>
-      <c r="E648" s="13"/>
+      <c r="E648" s="12"/>
     </row>
     <row r="649" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="4"/>
-      <c r="E649" s="13"/>
+      <c r="E649" s="12"/>
     </row>
     <row r="650" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="4"/>
-      <c r="E650" s="13"/>
+      <c r="E650" s="12"/>
     </row>
     <row r="651" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="4"/>
-      <c r="E651" s="13"/>
+      <c r="E651" s="12"/>
     </row>
     <row r="652" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="4"/>
-      <c r="E652" s="13"/>
+      <c r="E652" s="12"/>
     </row>
     <row r="653" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="4"/>
-      <c r="E653" s="13"/>
+      <c r="E653" s="12"/>
     </row>
     <row r="654" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="4"/>
-      <c r="E654" s="13"/>
+      <c r="E654" s="12"/>
     </row>
     <row r="655" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="4"/>
-      <c r="E655" s="13"/>
+      <c r="E655" s="12"/>
     </row>
     <row r="656" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="4"/>
-      <c r="E656" s="13"/>
+      <c r="E656" s="12"/>
     </row>
     <row r="657" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="4"/>
-      <c r="E657" s="13"/>
+      <c r="E657" s="12"/>
     </row>
     <row r="658" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="4"/>
-      <c r="E658" s="13"/>
+      <c r="E658" s="12"/>
     </row>
     <row r="659" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="4"/>
-      <c r="E659" s="13"/>
+      <c r="E659" s="12"/>
     </row>
     <row r="660" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="4"/>
-      <c r="E660" s="13"/>
+      <c r="E660" s="12"/>
     </row>
     <row r="661" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="4"/>
-      <c r="E661" s="13"/>
+      <c r="E661" s="12"/>
     </row>
     <row r="662" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="4"/>
-      <c r="E662" s="13"/>
+      <c r="E662" s="12"/>
     </row>
     <row r="663" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="4"/>
-      <c r="E663" s="13"/>
+      <c r="E663" s="12"/>
     </row>
     <row r="664" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="4"/>
-      <c r="E664" s="13"/>
+      <c r="E664" s="12"/>
     </row>
     <row r="665" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="4"/>
-      <c r="E665" s="13"/>
+      <c r="E665" s="12"/>
     </row>
     <row r="666" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="4"/>
-      <c r="E666" s="13"/>
+      <c r="E666" s="12"/>
     </row>
     <row r="667" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="4"/>
-      <c r="E667" s="13"/>
+      <c r="E667" s="12"/>
     </row>
     <row r="668" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="4"/>
-      <c r="E668" s="13"/>
+      <c r="E668" s="12"/>
     </row>
     <row r="669" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="4"/>
-      <c r="E669" s="13"/>
+      <c r="E669" s="12"/>
     </row>
     <row r="670" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="4"/>
-      <c r="E670" s="13"/>
+      <c r="E670" s="12"/>
     </row>
     <row r="671" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="4"/>
-      <c r="E671" s="13"/>
+      <c r="E671" s="12"/>
     </row>
     <row r="672" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="4"/>
-      <c r="E672" s="13"/>
+      <c r="E672" s="12"/>
     </row>
     <row r="673" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="4"/>
-      <c r="E673" s="13"/>
+      <c r="E673" s="12"/>
     </row>
     <row r="674" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="4"/>
-      <c r="E674" s="13"/>
+      <c r="E674" s="12"/>
     </row>
     <row r="675" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="4"/>
-      <c r="E675" s="13"/>
+      <c r="E675" s="12"/>
     </row>
     <row r="676" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="4"/>
-      <c r="E676" s="13"/>
+      <c r="E676" s="12"/>
     </row>
     <row r="677" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="4"/>
-      <c r="E677" s="13"/>
+      <c r="E677" s="12"/>
     </row>
     <row r="678" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="4"/>
-      <c r="E678" s="13"/>
+      <c r="E678" s="12"/>
     </row>
     <row r="679" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="4"/>
-      <c r="E679" s="13"/>
+      <c r="E679" s="12"/>
     </row>
     <row r="680" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="4"/>
-      <c r="E680" s="13"/>
+      <c r="E680" s="12"/>
     </row>
     <row r="681" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="4"/>
-      <c r="E681" s="13"/>
+      <c r="E681" s="12"/>
     </row>
     <row r="682" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="4"/>
-      <c r="E682" s="13"/>
+      <c r="E682" s="12"/>
     </row>
     <row r="683" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="4"/>
-      <c r="E683" s="13"/>
+      <c r="E683" s="12"/>
     </row>
     <row r="684" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="4"/>
-      <c r="E684" s="13"/>
+      <c r="E684" s="12"/>
     </row>
     <row r="685" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="4"/>
-      <c r="E685" s="13"/>
+      <c r="E685" s="12"/>
     </row>
     <row r="686" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="4"/>
-      <c r="E686" s="13"/>
+      <c r="E686" s="12"/>
     </row>
     <row r="687" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="4"/>
-      <c r="E687" s="13"/>
+      <c r="E687" s="12"/>
     </row>
     <row r="688" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="4"/>
-      <c r="E688" s="13"/>
+      <c r="E688" s="12"/>
     </row>
     <row r="689" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="4"/>
-      <c r="E689" s="13"/>
+      <c r="E689" s="12"/>
     </row>
     <row r="690" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="4"/>
-      <c r="E690" s="13"/>
+      <c r="E690" s="12"/>
     </row>
     <row r="691" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="4"/>
-      <c r="E691" s="13"/>
+      <c r="E691" s="12"/>
     </row>
     <row r="692" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="4"/>
-      <c r="E692" s="13"/>
+      <c r="E692" s="12"/>
     </row>
     <row r="693" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="4"/>
-      <c r="E693" s="13"/>
+      <c r="E693" s="12"/>
     </row>
     <row r="694" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="4"/>
-      <c r="E694" s="13"/>
+      <c r="E694" s="12"/>
     </row>
     <row r="695" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="4"/>
-      <c r="E695" s="13"/>
+      <c r="E695" s="12"/>
     </row>
     <row r="696" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="4"/>
-      <c r="E696" s="13"/>
+      <c r="E696" s="12"/>
     </row>
     <row r="697" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="4"/>
-      <c r="E697" s="13"/>
+      <c r="E697" s="12"/>
     </row>
     <row r="698" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="4"/>
-      <c r="E698" s="13"/>
+      <c r="E698" s="12"/>
     </row>
     <row r="699" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="4"/>
-      <c r="E699" s="13"/>
+      <c r="E699" s="12"/>
     </row>
     <row r="700" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="4"/>
-      <c r="E700" s="13"/>
+      <c r="E700" s="12"/>
     </row>
     <row r="701" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="4"/>
-      <c r="E701" s="13"/>
+      <c r="E701" s="12"/>
     </row>
     <row r="702" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="4"/>
-      <c r="E702" s="13"/>
+      <c r="E702" s="12"/>
     </row>
     <row r="703" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="4"/>
-      <c r="E703" s="13"/>
+      <c r="E703" s="12"/>
     </row>
     <row r="704" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="4"/>
-      <c r="E704" s="13"/>
+      <c r="E704" s="12"/>
     </row>
     <row r="705" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="4"/>
-      <c r="E705" s="13"/>
+      <c r="E705" s="12"/>
     </row>
     <row r="706" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="4"/>
-      <c r="E706" s="13"/>
+      <c r="E706" s="12"/>
     </row>
     <row r="707" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="4"/>
-      <c r="E707" s="13"/>
+      <c r="E707" s="12"/>
     </row>
     <row r="708" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="4"/>
-      <c r="E708" s="13"/>
+      <c r="E708" s="12"/>
     </row>
     <row r="709" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="4"/>
-      <c r="E709" s="13"/>
+      <c r="E709" s="12"/>
     </row>
     <row r="710" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="4"/>
-      <c r="E710" s="13"/>
+      <c r="E710" s="12"/>
     </row>
     <row r="711" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="4"/>
-      <c r="E711" s="13"/>
+      <c r="E711" s="12"/>
     </row>
     <row r="712" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="4"/>
-      <c r="E712" s="13"/>
+      <c r="E712" s="12"/>
     </row>
     <row r="713" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="4"/>
-      <c r="E713" s="13"/>
+      <c r="E713" s="12"/>
     </row>
     <row r="714" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="4"/>
-      <c r="E714" s="13"/>
+      <c r="E714" s="12"/>
     </row>
     <row r="715" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="4"/>
-      <c r="E715" s="13"/>
+      <c r="E715" s="12"/>
     </row>
     <row r="716" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="4"/>
-      <c r="E716" s="13"/>
+      <c r="E716" s="12"/>
     </row>
     <row r="717" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="4"/>
-      <c r="E717" s="13"/>
+      <c r="E717" s="12"/>
     </row>
     <row r="718" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="4"/>
-      <c r="E718" s="13"/>
+      <c r="E718" s="12"/>
     </row>
     <row r="719" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="4"/>
-      <c r="E719" s="13"/>
+      <c r="E719" s="12"/>
     </row>
     <row r="720" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="4"/>
-      <c r="E720" s="13"/>
+      <c r="E720" s="12"/>
     </row>
     <row r="721" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="4"/>
-      <c r="E721" s="13"/>
+      <c r="E721" s="12"/>
     </row>
     <row r="722" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="4"/>
-      <c r="E722" s="13"/>
+      <c r="E722" s="12"/>
     </row>
     <row r="723" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="4"/>
-      <c r="E723" s="13"/>
+      <c r="E723" s="12"/>
     </row>
     <row r="724" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="4"/>
-      <c r="E724" s="13"/>
+      <c r="E724" s="12"/>
     </row>
     <row r="725" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="4"/>
-      <c r="E725" s="13"/>
+      <c r="E725" s="12"/>
     </row>
     <row r="726" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="4"/>
-      <c r="E726" s="13"/>
+      <c r="E726" s="12"/>
     </row>
     <row r="727" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="4"/>
-      <c r="E727" s="13"/>
+      <c r="E727" s="12"/>
     </row>
     <row r="728" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="4"/>
-      <c r="E728" s="13"/>
+      <c r="E728" s="12"/>
     </row>
     <row r="729" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="4"/>
-      <c r="E729" s="13"/>
+      <c r="E729" s="12"/>
     </row>
     <row r="730" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="4"/>
-      <c r="E730" s="13"/>
+      <c r="E730" s="12"/>
     </row>
     <row r="731" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="4"/>
-      <c r="E731" s="13"/>
+      <c r="E731" s="12"/>
     </row>
     <row r="732" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="4"/>
-      <c r="E732" s="13"/>
+      <c r="E732" s="12"/>
     </row>
     <row r="733" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="4"/>
-      <c r="E733" s="13"/>
+      <c r="E733" s="12"/>
     </row>
     <row r="734" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="4"/>
-      <c r="E734" s="13"/>
+      <c r="E734" s="12"/>
     </row>
     <row r="735" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="4"/>
-      <c r="E735" s="13"/>
+      <c r="E735" s="12"/>
     </row>
     <row r="736" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="4"/>
-      <c r="E736" s="13"/>
+      <c r="E736" s="12"/>
     </row>
     <row r="737" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="4"/>
-      <c r="E737" s="13"/>
+      <c r="E737" s="12"/>
     </row>
     <row r="738" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="4"/>
-      <c r="E738" s="13"/>
+      <c r="E738" s="12"/>
     </row>
     <row r="739" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="4"/>
-      <c r="E739" s="13"/>
+      <c r="E739" s="12"/>
     </row>
     <row r="740" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="4"/>
-      <c r="E740" s="13"/>
+      <c r="E740" s="12"/>
     </row>
     <row r="741" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="4"/>
-      <c r="E741" s="13"/>
+      <c r="E741" s="12"/>
     </row>
     <row r="742" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="4"/>
-      <c r="E742" s="13"/>
+      <c r="E742" s="12"/>
     </row>
     <row r="743" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="4"/>
-      <c r="E743" s="13"/>
+      <c r="E743" s="12"/>
     </row>
     <row r="744" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="4"/>
-      <c r="E744" s="13"/>
+      <c r="E744" s="12"/>
     </row>
     <row r="745" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="4"/>
-      <c r="E745" s="13"/>
+      <c r="E745" s="12"/>
     </row>
     <row r="746" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="4"/>
-      <c r="E746" s="13"/>
+      <c r="E746" s="12"/>
     </row>
     <row r="747" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="4"/>
-      <c r="E747" s="13"/>
+      <c r="E747" s="12"/>
     </row>
     <row r="748" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="4"/>
-      <c r="E748" s="13"/>
+      <c r="E748" s="12"/>
     </row>
     <row r="749" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="4"/>
-      <c r="E749" s="13"/>
+      <c r="E749" s="12"/>
     </row>
     <row r="750" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="4"/>
-      <c r="E750" s="13"/>
+      <c r="E750" s="12"/>
     </row>
     <row r="751" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="4"/>
-      <c r="E751" s="13"/>
+      <c r="E751" s="12"/>
     </row>
     <row r="752" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="4"/>
-      <c r="E752" s="13"/>
+      <c r="E752" s="12"/>
     </row>
     <row r="753" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="4"/>
-      <c r="E753" s="13"/>
+      <c r="E753" s="12"/>
     </row>
     <row r="754" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="4"/>
-      <c r="E754" s="13"/>
+      <c r="E754" s="12"/>
     </row>
     <row r="755" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="4"/>
-      <c r="E755" s="13"/>
+      <c r="E755" s="12"/>
     </row>
     <row r="756" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="4"/>
-      <c r="E756" s="13"/>
+      <c r="E756" s="12"/>
     </row>
     <row r="757" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="4"/>
-      <c r="E757" s="13"/>
+      <c r="E757" s="12"/>
     </row>
     <row r="758" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="4"/>
-      <c r="E758" s="13"/>
+      <c r="E758" s="12"/>
     </row>
     <row r="759" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="4"/>
-      <c r="E759" s="13"/>
+      <c r="E759" s="12"/>
     </row>
     <row r="760" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="4"/>
-      <c r="E760" s="13"/>
+      <c r="E760" s="12"/>
     </row>
     <row r="761" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="4"/>
-      <c r="E761" s="13"/>
+      <c r="E761" s="12"/>
     </row>
     <row r="762" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="4"/>
-      <c r="E762" s="13"/>
+      <c r="E762" s="12"/>
     </row>
     <row r="763" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="4"/>
-      <c r="E763" s="13"/>
+      <c r="E763" s="12"/>
     </row>
     <row r="764" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="4"/>
-      <c r="E764" s="13"/>
+      <c r="E764" s="12"/>
     </row>
     <row r="765" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="4"/>
-      <c r="E765" s="13"/>
+      <c r="E765" s="12"/>
     </row>
     <row r="766" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="4"/>
-      <c r="E766" s="13"/>
+      <c r="E766" s="12"/>
     </row>
     <row r="767" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="4"/>
-      <c r="E767" s="13"/>
+      <c r="E767" s="12"/>
     </row>
     <row r="768" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="4"/>
-      <c r="E768" s="13"/>
+      <c r="E768" s="12"/>
     </row>
     <row r="769" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="4"/>
-      <c r="E769" s="13"/>
+      <c r="E769" s="12"/>
     </row>
     <row r="770" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="4"/>
-      <c r="E770" s="13"/>
+      <c r="E770" s="12"/>
     </row>
     <row r="771" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="4"/>
-      <c r="E771" s="13"/>
+      <c r="E771" s="12"/>
     </row>
     <row r="772" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="4"/>
-      <c r="E772" s="13"/>
+      <c r="E772" s="12"/>
     </row>
     <row r="773" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="4"/>
-      <c r="E773" s="13"/>
+      <c r="E773" s="12"/>
     </row>
     <row r="774" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="4"/>
-      <c r="E774" s="13"/>
+      <c r="E774" s="12"/>
     </row>
     <row r="775" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="4"/>
-      <c r="E775" s="13"/>
+      <c r="E775" s="12"/>
     </row>
     <row r="776" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="4"/>
-      <c r="E776" s="13"/>
+      <c r="E776" s="12"/>
     </row>
     <row r="777" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="4"/>
-      <c r="E777" s="13"/>
+      <c r="E777" s="12"/>
     </row>
     <row r="778" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="4"/>
-      <c r="E778" s="13"/>
+      <c r="E778" s="12"/>
     </row>
     <row r="779" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="4"/>
-      <c r="E779" s="13"/>
+      <c r="E779" s="12"/>
     </row>
     <row r="780" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="4"/>
-      <c r="E780" s="13"/>
+      <c r="E780" s="12"/>
     </row>
     <row r="781" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="4"/>
-      <c r="E781" s="13"/>
+      <c r="E781" s="12"/>
     </row>
     <row r="782" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="4"/>
-      <c r="E782" s="13"/>
+      <c r="E782" s="12"/>
     </row>
     <row r="783" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="4"/>
-      <c r="E783" s="13"/>
+      <c r="E783" s="12"/>
     </row>
     <row r="784" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="4"/>
-      <c r="E784" s="13"/>
+      <c r="E784" s="12"/>
     </row>
     <row r="785" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="4"/>
-      <c r="E785" s="13"/>
+      <c r="E785" s="12"/>
     </row>
     <row r="786" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="4"/>
-      <c r="E786" s="13"/>
+      <c r="E786" s="12"/>
     </row>
     <row r="787" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="4"/>
-      <c r="E787" s="13"/>
+      <c r="E787" s="12"/>
     </row>
     <row r="788" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="4"/>
-      <c r="E788" s="13"/>
+      <c r="E788" s="12"/>
     </row>
     <row r="789" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="4"/>
-      <c r="E789" s="13"/>
+      <c r="E789" s="12"/>
     </row>
     <row r="790" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="4"/>
-      <c r="E790" s="13"/>
+      <c r="E790" s="12"/>
     </row>
     <row r="791" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="4"/>
-      <c r="E791" s="13"/>
+      <c r="E791" s="12"/>
     </row>
     <row r="792" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="4"/>
-      <c r="E792" s="13"/>
+      <c r="E792" s="12"/>
     </row>
     <row r="793" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="4"/>
-      <c r="E793" s="13"/>
+      <c r="E793" s="12"/>
     </row>
     <row r="794" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="4"/>
-      <c r="E794" s="13"/>
+      <c r="E794" s="12"/>
     </row>
     <row r="795" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="4"/>
-      <c r="E795" s="13"/>
+      <c r="E795" s="12"/>
     </row>
     <row r="796" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="4"/>
-      <c r="E796" s="13"/>
+      <c r="E796" s="12"/>
     </row>
     <row r="797" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="4"/>
-      <c r="E797" s="13"/>
+      <c r="E797" s="12"/>
     </row>
     <row r="798" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="4"/>
-      <c r="E798" s="13"/>
+      <c r="E798" s="12"/>
     </row>
     <row r="799" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="4"/>
-      <c r="E799" s="13"/>
+      <c r="E799" s="12"/>
     </row>
     <row r="800" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="4"/>
-      <c r="E800" s="13"/>
+      <c r="E800" s="12"/>
     </row>
     <row r="801" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="4"/>
-      <c r="E801" s="13"/>
+      <c r="E801" s="12"/>
     </row>
     <row r="802" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="4"/>
-      <c r="E802" s="13"/>
+      <c r="E802" s="12"/>
     </row>
     <row r="803" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="4"/>
-      <c r="E803" s="13"/>
+      <c r="E803" s="12"/>
     </row>
     <row r="804" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="4"/>
-      <c r="E804" s="13"/>
+      <c r="E804" s="12"/>
     </row>
     <row r="805" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="4"/>
-      <c r="E805" s="13"/>
+      <c r="E805" s="12"/>
     </row>
     <row r="806" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="4"/>
-      <c r="E806" s="13"/>
+      <c r="E806" s="12"/>
     </row>
     <row r="807" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="4"/>
-      <c r="E807" s="13"/>
+      <c r="E807" s="12"/>
     </row>
     <row r="808" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="4"/>
-      <c r="E808" s="13"/>
+      <c r="E808" s="12"/>
     </row>
     <row r="809" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="4"/>
-      <c r="E809" s="13"/>
+      <c r="E809" s="12"/>
     </row>
     <row r="810" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="4"/>
-      <c r="E810" s="13"/>
+      <c r="E810" s="12"/>
     </row>
     <row r="811" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="4"/>
-      <c r="E811" s="13"/>
+      <c r="E811" s="12"/>
     </row>
     <row r="812" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="4"/>
-      <c r="E812" s="13"/>
+      <c r="E812" s="12"/>
     </row>
     <row r="813" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="4"/>
-      <c r="E813" s="13"/>
+      <c r="E813" s="12"/>
     </row>
     <row r="814" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="4"/>
-      <c r="E814" s="13"/>
+      <c r="E814" s="12"/>
     </row>
     <row r="815" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="4"/>
-      <c r="E815" s="13"/>
+      <c r="E815" s="12"/>
     </row>
     <row r="816" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="4"/>
-      <c r="E816" s="13"/>
+      <c r="E816" s="12"/>
     </row>
     <row r="817" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="4"/>
-      <c r="E817" s="13"/>
+      <c r="E817" s="12"/>
     </row>
     <row r="818" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="4"/>
-      <c r="E818" s="13"/>
+      <c r="E818" s="12"/>
     </row>
     <row r="819" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="4"/>
-      <c r="E819" s="13"/>
+      <c r="E819" s="12"/>
     </row>
     <row r="820" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="4"/>
-      <c r="E820" s="13"/>
+      <c r="E820" s="12"/>
     </row>
     <row r="821" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="4"/>
-      <c r="E821" s="13"/>
+      <c r="E821" s="12"/>
     </row>
     <row r="822" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="4"/>
-      <c r="E822" s="13"/>
+      <c r="E822" s="12"/>
     </row>
     <row r="823" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="4"/>
-      <c r="E823" s="13"/>
+      <c r="E823" s="12"/>
     </row>
     <row r="824" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="4"/>
-      <c r="E824" s="13"/>
+      <c r="E824" s="12"/>
     </row>
     <row r="825" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="4"/>
-      <c r="E825" s="13"/>
+      <c r="E825" s="12"/>
     </row>
     <row r="826" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="4"/>
-      <c r="E826" s="13"/>
+      <c r="E826" s="12"/>
     </row>
     <row r="827" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="4"/>
-      <c r="E827" s="13"/>
+      <c r="E827" s="12"/>
     </row>
     <row r="828" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="4"/>
-      <c r="E828" s="13"/>
+      <c r="E828" s="12"/>
     </row>
     <row r="829" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="4"/>
-      <c r="E829" s="13"/>
+      <c r="E829" s="12"/>
     </row>
     <row r="830" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="4"/>
-      <c r="E830" s="13"/>
+      <c r="E830" s="12"/>
     </row>
     <row r="831" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="4"/>
-      <c r="E831" s="13"/>
+      <c r="E831" s="12"/>
     </row>
     <row r="832" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="4"/>
-      <c r="E832" s="13"/>
+      <c r="E832" s="12"/>
     </row>
     <row r="833" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="4"/>
-      <c r="E833" s="13"/>
+      <c r="E833" s="12"/>
     </row>
     <row r="834" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="4"/>
-      <c r="E834" s="13"/>
+      <c r="E834" s="12"/>
     </row>
     <row r="835" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="4"/>
-      <c r="E835" s="13"/>
+      <c r="E835" s="12"/>
     </row>
     <row r="836" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="4"/>
-      <c r="E836" s="13"/>
+      <c r="E836" s="12"/>
     </row>
     <row r="837" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="4"/>
-      <c r="E837" s="13"/>
+      <c r="E837" s="12"/>
     </row>
     <row r="838" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="4"/>
-      <c r="E838" s="13"/>
+      <c r="E838" s="12"/>
     </row>
     <row r="839" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="4"/>
-      <c r="E839" s="13"/>
+      <c r="E839" s="12"/>
     </row>
     <row r="840" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="4"/>
-      <c r="E840" s="13"/>
+      <c r="E840" s="12"/>
     </row>
     <row r="841" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="4"/>
-      <c r="E841" s="13"/>
+      <c r="E841" s="12"/>
     </row>
     <row r="842" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="4"/>
-      <c r="E842" s="13"/>
+      <c r="E842" s="12"/>
     </row>
     <row r="843" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="4"/>
-      <c r="E843" s="13"/>
+      <c r="E843" s="12"/>
     </row>
     <row r="844" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="4"/>
-      <c r="E844" s="13"/>
+      <c r="E844" s="12"/>
     </row>
     <row r="845" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="4"/>
-      <c r="E845" s="13"/>
+      <c r="E845" s="12"/>
     </row>
     <row r="846" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="4"/>
-      <c r="E846" s="13"/>
+      <c r="E846" s="12"/>
     </row>
     <row r="847" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="4"/>
-      <c r="E847" s="13"/>
+      <c r="E847" s="12"/>
     </row>
     <row r="848" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="4"/>
-      <c r="E848" s="13"/>
+      <c r="E848" s="12"/>
     </row>
     <row r="849" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="4"/>
-      <c r="E849" s="13"/>
+      <c r="E849" s="12"/>
     </row>
     <row r="850" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="4"/>
-      <c r="E850" s="13"/>
+      <c r="E850" s="12"/>
     </row>
     <row r="851" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="4"/>
-      <c r="E851" s="13"/>
+      <c r="E851" s="12"/>
     </row>
     <row r="852" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="4"/>
-      <c r="E852" s="13"/>
+      <c r="E852" s="12"/>
     </row>
     <row r="853" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="4"/>
-      <c r="E853" s="13"/>
+      <c r="E853" s="12"/>
     </row>
     <row r="854" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="4"/>
-      <c r="E854" s="13"/>
+      <c r="E854" s="12"/>
     </row>
     <row r="855" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="4"/>
-      <c r="E855" s="13"/>
+      <c r="E855" s="12"/>
     </row>
     <row r="856" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="4"/>
-      <c r="E856" s="13"/>
+      <c r="E856" s="12"/>
     </row>
     <row r="857" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="4"/>
-      <c r="E857" s="13"/>
+      <c r="E857" s="12"/>
     </row>
     <row r="858" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="4"/>
-      <c r="E858" s="13"/>
+      <c r="E858" s="12"/>
     </row>
     <row r="859" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="4"/>
-      <c r="E859" s="13"/>
+      <c r="E859" s="12"/>
     </row>
     <row r="860" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="4"/>
-      <c r="E860" s="13"/>
+      <c r="E860" s="12"/>
     </row>
     <row r="861" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="4"/>
-      <c r="E861" s="13"/>
+      <c r="E861" s="12"/>
     </row>
     <row r="862" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="4"/>
-      <c r="E862" s="13"/>
+      <c r="E862" s="12"/>
     </row>
     <row r="863" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="4"/>
-      <c r="E863" s="13"/>
+      <c r="E863" s="12"/>
     </row>
     <row r="864" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="4"/>
-      <c r="E864" s="13"/>
+      <c r="E864" s="12"/>
     </row>
     <row r="865" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="4"/>
-      <c r="E865" s="13"/>
+      <c r="E865" s="12"/>
     </row>
     <row r="866" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="4"/>
-      <c r="E866" s="13"/>
+      <c r="E866" s="12"/>
     </row>
     <row r="867" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="4"/>
-      <c r="E867" s="13"/>
+      <c r="E867" s="12"/>
     </row>
     <row r="868" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="4"/>
-      <c r="E868" s="13"/>
+      <c r="E868" s="12"/>
     </row>
     <row r="869" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="4"/>
-      <c r="E869" s="13"/>
+      <c r="E869" s="12"/>
     </row>
     <row r="870" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="4"/>
-      <c r="E870" s="13"/>
+      <c r="E870" s="12"/>
     </row>
     <row r="871" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="4"/>
-      <c r="E871" s="13"/>
+      <c r="E871" s="12"/>
     </row>
     <row r="872" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="4"/>
-      <c r="E872" s="13"/>
+      <c r="E872" s="12"/>
     </row>
     <row r="873" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="4"/>
-      <c r="E873" s="13"/>
+      <c r="E873" s="12"/>
     </row>
     <row r="874" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="4"/>
-      <c r="E874" s="13"/>
+      <c r="E874" s="12"/>
     </row>
     <row r="875" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="4"/>
-      <c r="E875" s="13"/>
+      <c r="E875" s="12"/>
     </row>
     <row r="876" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="4"/>
-      <c r="E876" s="13"/>
+      <c r="E876" s="12"/>
     </row>
     <row r="877" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="4"/>
-      <c r="E877" s="13"/>
+      <c r="E877" s="12"/>
     </row>
     <row r="878" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="4"/>
-      <c r="E878" s="13"/>
+      <c r="E878" s="12"/>
     </row>
     <row r="879" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="4"/>
-      <c r="E879" s="13"/>
+      <c r="E879" s="12"/>
     </row>
     <row r="880" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="4"/>
-      <c r="E880" s="13"/>
+      <c r="E880" s="12"/>
     </row>
     <row r="881" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="4"/>
-      <c r="E881" s="13"/>
+      <c r="E881" s="12"/>
     </row>
     <row r="882" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="4"/>
-      <c r="E882" s="13"/>
+      <c r="E882" s="12"/>
     </row>
     <row r="883" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="4"/>
-      <c r="E883" s="13"/>
+      <c r="E883" s="12"/>
     </row>
     <row r="884" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="4"/>
-      <c r="E884" s="13"/>
+      <c r="E884" s="12"/>
     </row>
     <row r="885" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="4"/>
-      <c r="E885" s="13"/>
+      <c r="E885" s="12"/>
     </row>
     <row r="886" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="4"/>
-      <c r="E886" s="13"/>
+      <c r="E886" s="12"/>
     </row>
     <row r="887" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="4"/>
-      <c r="E887" s="13"/>
+      <c r="E887" s="12"/>
     </row>
     <row r="888" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="4"/>
-      <c r="E888" s="13"/>
+      <c r="E888" s="12"/>
     </row>
     <row r="889" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="4"/>
-      <c r="E889" s="13"/>
+      <c r="E889" s="12"/>
     </row>
     <row r="890" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="4"/>
-      <c r="E890" s="13"/>
+      <c r="E890" s="12"/>
     </row>
     <row r="891" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="4"/>
-      <c r="E891" s="13"/>
+      <c r="E891" s="12"/>
     </row>
     <row r="892" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="4"/>
-      <c r="E892" s="13"/>
+      <c r="E892" s="12"/>
     </row>
     <row r="893" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="4"/>
-      <c r="E893" s="13"/>
+      <c r="E893" s="12"/>
     </row>
     <row r="894" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="4"/>
-      <c r="E894" s="13"/>
+      <c r="E894" s="12"/>
     </row>
     <row r="895" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="4"/>
-      <c r="E895" s="13"/>
+      <c r="E895" s="12"/>
     </row>
     <row r="896" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="4"/>
-      <c r="E896" s="13"/>
+      <c r="E896" s="12"/>
     </row>
     <row r="897" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="4"/>
-      <c r="E897" s="13"/>
+      <c r="E897" s="12"/>
     </row>
     <row r="898" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="4"/>
-      <c r="E898" s="13"/>
+      <c r="E898" s="12"/>
     </row>
     <row r="899" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="4"/>
-      <c r="E899" s="13"/>
+      <c r="E899" s="12"/>
     </row>
     <row r="900" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="4"/>
-      <c r="E900" s="13"/>
+      <c r="E900" s="12"/>
     </row>
     <row r="901" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="4"/>
-      <c r="E901" s="13"/>
+      <c r="E901" s="12"/>
     </row>
     <row r="902" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="4"/>
-      <c r="E902" s="13"/>
+      <c r="E902" s="12"/>
     </row>
     <row r="903" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="4"/>
-      <c r="E903" s="13"/>
+      <c r="E903" s="12"/>
     </row>
     <row r="904" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="4"/>
-      <c r="E904" s="13"/>
+      <c r="E904" s="12"/>
     </row>
     <row r="905" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="4"/>
-      <c r="E905" s="13"/>
+      <c r="E905" s="12"/>
     </row>
     <row r="906" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="4"/>
-      <c r="E906" s="13"/>
+      <c r="E906" s="12"/>
     </row>
     <row r="907" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="4"/>
-      <c r="E907" s="13"/>
+      <c r="E907" s="12"/>
     </row>
     <row r="908" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="4"/>
-      <c r="E908" s="13"/>
+      <c r="E908" s="12"/>
     </row>
     <row r="909" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="4"/>
-      <c r="E909" s="13"/>
+      <c r="E909" s="12"/>
     </row>
     <row r="910" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="4"/>
-      <c r="E910" s="13"/>
+      <c r="E910" s="12"/>
     </row>
     <row r="911" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="4"/>
-      <c r="E911" s="13"/>
+      <c r="E911" s="12"/>
     </row>
     <row r="912" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="4"/>
-      <c r="E912" s="13"/>
+      <c r="E912" s="12"/>
     </row>
     <row r="913" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="4"/>
-      <c r="E913" s="13"/>
+      <c r="E913" s="12"/>
     </row>
     <row r="914" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="4"/>
-      <c r="E914" s="13"/>
+      <c r="E914" s="12"/>
     </row>
     <row r="915" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="4"/>
-      <c r="E915" s="13"/>
+      <c r="E915" s="12"/>
     </row>
     <row r="916" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="4"/>
-      <c r="E916" s="13"/>
+      <c r="E916" s="12"/>
     </row>
     <row r="917" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="4"/>
-      <c r="E917" s="13"/>
+      <c r="E917" s="12"/>
     </row>
     <row r="918" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="4"/>
-      <c r="E918" s="13"/>
+      <c r="E918" s="12"/>
     </row>
     <row r="919" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="4"/>
-      <c r="E919" s="13"/>
+      <c r="E919" s="12"/>
     </row>
     <row r="920" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="4"/>
-      <c r="E920" s="13"/>
+      <c r="E920" s="12"/>
     </row>
     <row r="921" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="4"/>
-      <c r="E921" s="13"/>
+      <c r="E921" s="12"/>
     </row>
     <row r="922" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="4"/>
-      <c r="E922" s="13"/>
+      <c r="E922" s="12"/>
     </row>
     <row r="923" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="4"/>
-      <c r="E923" s="13"/>
+      <c r="E923" s="12"/>
     </row>
     <row r="924" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="4"/>
-      <c r="E924" s="13"/>
+      <c r="E924" s="12"/>
     </row>
     <row r="925" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="4"/>
-      <c r="E925" s="13"/>
+      <c r="E925" s="12"/>
     </row>
     <row r="926" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="4"/>
-      <c r="E926" s="13"/>
+      <c r="E926" s="12"/>
     </row>
     <row r="927" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="4"/>
-      <c r="E927" s="13"/>
+      <c r="E927" s="12"/>
     </row>
     <row r="928" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="4"/>
-      <c r="E928" s="13"/>
+      <c r="E928" s="12"/>
     </row>
     <row r="929" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="4"/>
-      <c r="E929" s="13"/>
+      <c r="E929" s="12"/>
     </row>
     <row r="930" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="4"/>
-      <c r="E930" s="13"/>
+      <c r="E930" s="12"/>
     </row>
     <row r="931" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="4"/>
-      <c r="E931" s="13"/>
+      <c r="E931" s="12"/>
     </row>
     <row r="932" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="4"/>
-      <c r="E932" s="13"/>
+      <c r="E932" s="12"/>
     </row>
     <row r="933" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="4"/>
-      <c r="E933" s="13"/>
+      <c r="E933" s="12"/>
     </row>
     <row r="934" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="4"/>
-      <c r="E934" s="13"/>
+      <c r="E934" s="12"/>
     </row>
     <row r="935" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="4"/>
-      <c r="E935" s="13"/>
+      <c r="E935" s="12"/>
     </row>
     <row r="936" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="4"/>
-      <c r="E936" s="13"/>
+      <c r="E936" s="12"/>
     </row>
     <row r="937" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="4"/>
-      <c r="E937" s="13"/>
+      <c r="E937" s="12"/>
     </row>
     <row r="938" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="4"/>
-      <c r="E938" s="13"/>
+      <c r="E938" s="12"/>
     </row>
     <row r="939" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="4"/>
-      <c r="E939" s="13"/>
+      <c r="E939" s="12"/>
     </row>
     <row r="940" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="4"/>
-      <c r="E940" s="13"/>
+      <c r="E940" s="12"/>
     </row>
     <row r="941" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="4"/>
-      <c r="E941" s="13"/>
+      <c r="E941" s="12"/>
     </row>
     <row r="942" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="4"/>
-      <c r="E942" s="13"/>
+      <c r="E942" s="12"/>
     </row>
     <row r="943" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="4"/>
-      <c r="E943" s="13"/>
+      <c r="E943" s="12"/>
     </row>
     <row r="944" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="4"/>
-      <c r="E944" s="13"/>
+      <c r="E944" s="12"/>
     </row>
     <row r="945" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="4"/>
-      <c r="E945" s="13"/>
+      <c r="E945" s="12"/>
     </row>
     <row r="946" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="4"/>
-      <c r="E946" s="13"/>
+      <c r="E946" s="12"/>
     </row>
     <row r="947" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="4"/>
-      <c r="E947" s="13"/>
+      <c r="E947" s="12"/>
     </row>
     <row r="948" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="4"/>
-      <c r="E948" s="13"/>
+      <c r="E948" s="12"/>
     </row>
     <row r="949" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="4"/>
-      <c r="E949" s="13"/>
+      <c r="E949" s="12"/>
     </row>
     <row r="950" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="4"/>
-      <c r="E950" s="13"/>
+      <c r="E950" s="12"/>
     </row>
     <row r="951" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="4"/>
-      <c r="E951" s="13"/>
+      <c r="E951" s="12"/>
     </row>
     <row r="952" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="4"/>
-      <c r="E952" s="13"/>
+      <c r="E952" s="12"/>
     </row>
     <row r="953" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="4"/>
-      <c r="E953" s="13"/>
+      <c r="E953" s="12"/>
     </row>
     <row r="954" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="4"/>
-      <c r="E954" s="13"/>
+      <c r="E954" s="12"/>
     </row>
     <row r="955" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="4"/>
-      <c r="E955" s="13"/>
+      <c r="E955" s="12"/>
     </row>
     <row r="956" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="4"/>
-      <c r="E956" s="13"/>
+      <c r="E956" s="12"/>
     </row>
     <row r="957" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="4"/>
-      <c r="E957" s="13"/>
+      <c r="E957" s="12"/>
     </row>
     <row r="958" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="4"/>
-      <c r="E958" s="13"/>
+      <c r="E958" s="12"/>
     </row>
     <row r="959" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="4"/>
-      <c r="E959" s="13"/>
+      <c r="E959" s="12"/>
     </row>
     <row r="960" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="4"/>
-      <c r="E960" s="13"/>
+      <c r="E960" s="12"/>
     </row>
     <row r="961" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="4"/>
-      <c r="E961" s="13"/>
+      <c r="E961" s="12"/>
     </row>
     <row r="962" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="4"/>
-      <c r="E962" s="13"/>
+      <c r="E962" s="12"/>
     </row>
     <row r="963" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="4"/>
-      <c r="E963" s="13"/>
+      <c r="E963" s="12"/>
     </row>
     <row r="964" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="4"/>
-      <c r="E964" s="13"/>
+      <c r="E964" s="12"/>
     </row>
     <row r="965" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="4"/>
-      <c r="E965" s="13"/>
+      <c r="E965" s="12"/>
     </row>
     <row r="966" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="4"/>
-      <c r="E966" s="13"/>
+      <c r="E966" s="12"/>
     </row>
     <row r="967" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="4"/>
-      <c r="E967" s="13"/>
+      <c r="E967" s="12"/>
     </row>
     <row r="968" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="4"/>
-      <c r="E968" s="13"/>
+      <c r="E968" s="12"/>
     </row>
     <row r="969" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="4"/>
-      <c r="E969" s="13"/>
+      <c r="E969" s="12"/>
     </row>
     <row r="970" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="4"/>
-      <c r="E970" s="13"/>
+      <c r="E970" s="12"/>
     </row>
     <row r="971" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="4"/>
-      <c r="E971" s="13"/>
+      <c r="E971" s="12"/>
     </row>
     <row r="972" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="4"/>
-      <c r="E972" s="13"/>
+      <c r="E972" s="12"/>
     </row>
     <row r="973" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="4"/>
-      <c r="E973" s="13"/>
+      <c r="E973" s="12"/>
     </row>
     <row r="974" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="4"/>
-      <c r="E974" s="13"/>
+      <c r="E974" s="12"/>
     </row>
     <row r="975" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="4"/>
-      <c r="E975" s="13"/>
+      <c r="E975" s="12"/>
     </row>
     <row r="976" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="4"/>
-      <c r="E976" s="13"/>
+      <c r="E976" s="12"/>
     </row>
     <row r="977" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="4"/>
-      <c r="E977" s="13"/>
+      <c r="E977" s="12"/>
     </row>
     <row r="978" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="4"/>
-      <c r="E978" s="13"/>
+      <c r="E978" s="12"/>
     </row>
     <row r="979" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="4"/>
-      <c r="E979" s="13"/>
+      <c r="E979" s="12"/>
     </row>
     <row r="980" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="4"/>
-      <c r="E980" s="13"/>
+      <c r="E980" s="12"/>
     </row>
     <row r="981" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="4"/>
-      <c r="E981" s="13"/>
+      <c r="E981" s="12"/>
     </row>
     <row r="982" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="4"/>
-      <c r="E982" s="13"/>
+      <c r="E982" s="12"/>
     </row>
     <row r="983" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="4"/>
-      <c r="E983" s="13"/>
+      <c r="E983" s="12"/>
     </row>
     <row r="984" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="4"/>
-      <c r="E984" s="13"/>
+      <c r="E984" s="12"/>
     </row>
     <row r="985" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="4"/>
-      <c r="E985" s="13"/>
+      <c r="E985" s="12"/>
     </row>
     <row r="986" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="4"/>
-      <c r="E986" s="13"/>
+      <c r="E986" s="12"/>
     </row>
     <row r="987" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="4"/>
-      <c r="E987" s="13"/>
+      <c r="E987" s="12"/>
     </row>
     <row r="988" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="4"/>
-      <c r="E988" s="13"/>
+      <c r="E988" s="12"/>
     </row>
     <row r="989" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="4"/>
-      <c r="E989" s="13"/>
+      <c r="E989" s="12"/>
     </row>
     <row r="990" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="4"/>
-      <c r="E990" s="13"/>
+      <c r="E990" s="12"/>
     </row>
     <row r="991" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="4"/>
-      <c r="E991" s="13"/>
+      <c r="E991" s="12"/>
     </row>
     <row r="992" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="4"/>
-      <c r="E992" s="13"/>
+      <c r="E992" s="12"/>
     </row>
     <row r="993" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="4"/>
-      <c r="E993" s="13"/>
+      <c r="E993" s="12"/>
     </row>
     <row r="994" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="4"/>
-      <c r="E994" s="13"/>
+      <c r="E994" s="12"/>
     </row>
     <row r="995" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="4"/>
-      <c r="E995" s="13"/>
+      <c r="E995" s="12"/>
     </row>
     <row r="996" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="4"/>
-      <c r="E996" s="13"/>
+      <c r="E996" s="12"/>
     </row>
     <row r="997" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="4"/>
-      <c r="E997" s="13"/>
+      <c r="E997" s="12"/>
     </row>
     <row r="998" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="4"/>
-      <c r="E998" s="13"/>
+      <c r="E998" s="12"/>
     </row>
     <row r="999" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="4"/>
-      <c r="E999" s="13"/>
+      <c r="E999" s="12"/>
     </row>
     <row r="1000" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="4"/>
-      <c r="E1000" s="13"/>
+      <c r="E1000" s="12"/>
     </row>
     <row r="1001" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="4"/>
-      <c r="E1001" s="13"/>
+      <c r="E1001" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
